--- a/src/attributions/attributions_saliency_traj_400.xlsx
+++ b/src/attributions/attributions_saliency_traj_400.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.474973194301128e-05</v>
+        <v>0.1621950417757034</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0004654987715184689</v>
+        <v>0.04166389256715775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03051145188510418</v>
+        <v>0.1772751957178116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002105375519022346</v>
+        <v>0.02574750781059265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03211772814393044</v>
+        <v>0.241516649723053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000187920406460762</v>
+        <v>0.197202205657959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01034886948764324</v>
+        <v>0.06607319414615631</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005479445680975914</v>
+        <v>0.2008143812417984</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02548443526029587</v>
+        <v>0.1977775692939758</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003758566919714212</v>
+        <v>0.1280924379825592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006100367289036512</v>
+        <v>0.06901621073484421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03072176873683929</v>
+        <v>0.1025902554392815</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001318823895417154</v>
+        <v>0.09019432961940765</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01837496273219585</v>
+        <v>0.2445502132177353</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001670504687353969</v>
+        <v>0.04884524643421173</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008433639071881771</v>
+        <v>0.1496886909008026</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005153523292392492</v>
+        <v>0.07561760395765305</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02735788002610207</v>
+        <v>0.3588891923427582</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0004815769498236477</v>
+        <v>0.1124618723988533</v>
       </c>
       <c r="T3" t="n">
-        <v>0.008494928479194641</v>
+        <v>0.08954449743032455</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0005874241469427943</v>
+        <v>0.137044757604599</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008661389350891113</v>
+        <v>0.1622480154037476</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0005661835893988609</v>
+        <v>0.1050724163651466</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0007832149276509881</v>
+        <v>0.2191915512084961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002318074926733971</v>
+        <v>0.1356984972953796</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.005894272588193417</v>
+        <v>0.1327441185712814</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.000567528884857893</v>
+        <v>0.07567925751209259</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001575752859935164</v>
+        <v>0.08592204749584198</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.002354321535676718</v>
+        <v>0.2190979570150375</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0001097727799788117</v>
+        <v>0.01896525919437408</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.001001506811007857</v>
+        <v>0.07358782738447189</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002011004136875272</v>
+        <v>0.3444486558437347</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.000931004760786891</v>
+        <v>0.02029985375702381</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0004410046385601163</v>
+        <v>0.04258966445922852</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.00659559853374958</v>
+        <v>0.03577024862170219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.01101803407073021</v>
+        <v>0.3132336437702179</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.001256569055840373</v>
+        <v>0.09262128174304962</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.004537490196526051</v>
+        <v>0.0221079345792532</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.003735746257007122</v>
+        <v>0.1178517267107964</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001720599597319961</v>
+        <v>0.2274772226810455</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.005443103611469269</v>
+        <v>0.07368168234825134</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.001926097553223372</v>
+        <v>0.08794412016868591</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001376747968606651</v>
+        <v>0.01162524335086346</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.004006862174719572</v>
+        <v>0.0321451872587204</v>
       </c>
       <c r="AS3" t="n">
-        <v>4.344509216025472e-05</v>
+        <v>0.1819995939731598</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0005737082101404667</v>
+        <v>0.1866182833909988</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0003466426860541105</v>
+        <v>0.06450875848531723</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.01834108307957649</v>
+        <v>0.05312708765268326</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0001829057437134907</v>
+        <v>0.1857650279998779</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01405637990683317</v>
+        <v>0.4476926326751709</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.01464483235031366</v>
+        <v>0.02479011565446854</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.003170582698658109</v>
+        <v>0.06229893118143082</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.009616656228899956</v>
+        <v>0.06400616466999054</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.008644226938486099</v>
+        <v>0.04155842214822769</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0005145597970113158</v>
+        <v>0.2544042766094208</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.002518738154321909</v>
+        <v>0.0512479804456234</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.007154443766921759</v>
+        <v>0.1540336757898331</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00188776315189898</v>
+        <v>0.1223840415477753</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.006383150815963745</v>
+        <v>0.1198465973138809</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.005163584835827351</v>
+        <v>0.1390191316604614</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.00203307718038559</v>
+        <v>0.04090685024857521</v>
       </c>
       <c r="BJ3" t="n">
-        <v>9.943090844899416e-05</v>
+        <v>0.2885784506797791</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.004614740610122681</v>
+        <v>0.2608537077903748</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0001380285248160362</v>
+        <v>0.1001094877719879</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0002547417534515262</v>
+        <v>0.2443715929985046</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.009238192811608315</v>
+        <v>0.06050895527005196</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003469217335805297</v>
+        <v>0.06400740891695023</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.004256749525666237</v>
+        <v>0.2027195692062378</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.005007108207792044</v>
+        <v>0.05162185430526733</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0001866244128905237</v>
+        <v>0.1265050619840622</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002879558596760035</v>
+        <v>0.01916422694921494</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.005961125716567039</v>
+        <v>0.05679979920387268</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.003336639842018485</v>
+        <v>0.1322775781154633</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.001579012256115675</v>
+        <v>0.1164956241846085</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.006389482412487268</v>
+        <v>0.005949226208031178</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003243642160668969</v>
+        <v>0.1210862994194031</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01609854772686958</v>
+        <v>0.03211495280265808</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.007881936617195606</v>
+        <v>0.1542532593011856</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.002660486148670316</v>
+        <v>0.0173148587346077</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.003019315423443913</v>
+        <v>0.1921834200620651</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.01384370401501656</v>
+        <v>0.03080839850008488</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0002024357963819057</v>
+        <v>0.004612870514392853</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.005620686803013086</v>
+        <v>0.0181502103805542</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.006256870925426483</v>
+        <v>0.02083011344075203</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.001453586737625301</v>
+        <v>0.02274033427238464</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.007249664515256882</v>
+        <v>0.01297742873430252</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0005395084153860807</v>
+        <v>0.004817113280296326</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.001950189121998847</v>
+        <v>0.00764758512377739</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001582419616170228</v>
+        <v>0.01401279866695404</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.003118371590971947</v>
+        <v>0.04872316867113113</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001486911904066801</v>
+        <v>0.08825048804283142</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01379827968776226</v>
+        <v>0.1085313782095909</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.002162303309887648</v>
+        <v>0.007407138124108315</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.006290806457400322</v>
+        <v>0.04886286333203316</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.008187258616089821</v>
+        <v>0.0370134525001049</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0007258136756718159</v>
+        <v>0.05143234133720398</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.001059424132108688</v>
+        <v>0.09917330741882324</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.004019091837108135</v>
+        <v>0.0441252775490284</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.004408360458910465</v>
+        <v>0.09737488627433777</v>
       </c>
       <c r="CV3" t="n">
-        <v>8.571236685384065e-05</v>
+        <v>0.01505260914564133</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.004477314651012421</v>
+        <v>0.002421270590275526</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.00626769382506609</v>
+        <v>0.009123359806835651</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0009777550585567951</v>
+        <v>0.0711023285984993</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.009535960853099823</v>
+        <v>0.05240661650896072</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0003203081432729959</v>
+        <v>0.06112901121377945</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.003133647842332721</v>
+        <v>0.007698145695030689</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0003534143907018006</v>
+        <v>0.0213637463748455</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.004788849037140608</v>
+        <v>0.03481204435229301</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.003434807062149048</v>
+        <v>0.1365949213504791</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.011611457914114</v>
+        <v>0.2803511023521423</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.01126190647482872</v>
+        <v>0.1772286742925644</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.005352056119590998</v>
+        <v>0.1215249970555305</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.003130250843241811</v>
+        <v>0.3525061905384064</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001405325718224049</v>
+        <v>0.4354901909828186</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.008039503358304501</v>
+        <v>0.149657815694809</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.001265386119484901</v>
+        <v>0.1952707171440125</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.008827175945043564</v>
+        <v>0.215367466211319</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0001422918285243213</v>
+        <v>0.1874925196170807</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.004363310523331165</v>
+        <v>0.008741232566535473</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.002793113235384226</v>
+        <v>0.09481830894947052</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0008346074027940631</v>
+        <v>0.1580361574888229</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.006446319632232189</v>
+        <v>0.3017203509807587</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.003001885954290628</v>
+        <v>0.1556994915008545</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0004429745604284108</v>
+        <v>0.04974084720015526</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.00375922629609704</v>
+        <v>0.1734941601753235</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001741435844451189</v>
+        <v>0.04609900712966919</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0009553392883390188</v>
+        <v>0.03851468861103058</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0005897579248994589</v>
+        <v>0.1334708034992218</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.001144049922004342</v>
+        <v>0.008272846229374409</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.002886140719056129</v>
+        <v>0.08457650989294052</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.00197329418733716</v>
+        <v>0.1652645170688629</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.005589752458035946</v>
+        <v>0.1095158383250237</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001463356078602374</v>
+        <v>0.006454616785049438</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.001733329379931092</v>
+        <v>0.04781641811132431</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001043792814016342</v>
+        <v>0.09095840156078339</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0008847269928082824</v>
+        <v>0.04514618963003159</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.002369951223954558</v>
+        <v>0.02094353549182415</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.006416125223040581</v>
+        <v>0.006883539725095034</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.000242902257014066</v>
+        <v>0.04233530163764954</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.003837618511170149</v>
+        <v>0.06072130799293518</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.00661980826407671</v>
+        <v>0.1499884128570557</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.003295242786407471</v>
+        <v>0.005605081561952829</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.003191170049831271</v>
+        <v>0.04865280166268349</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.000784877862315625</v>
+        <v>0.0201406367123127</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.001324560958892107</v>
+        <v>0.128239780664444</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.004110099282115698</v>
+        <v>0.02165564708411694</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.001495024422183633</v>
+        <v>0.01331535167992115</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.001247810083441436</v>
+        <v>0.1192729920148849</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.00444834167137742</v>
+        <v>0.05651343241333961</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.006102330982685089</v>
+        <v>0.01032571773976088</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.003337491303682327</v>
+        <v>0.009365000762045383</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.001436735969036818</v>
+        <v>0.07948385924100876</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001576729118824005</v>
+        <v>0.006589069962501526</v>
       </c>
       <c r="EX3" t="n">
-        <v>8.537931717000902e-05</v>
+        <v>0.03025342524051666</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.004439855925738811</v>
+        <v>0.01189611479640007</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.006439176853746176</v>
+        <v>0.0006994376890361309</v>
       </c>
       <c r="FA3" t="n">
-        <v>3.845614264719188e-05</v>
+        <v>0.07865618169307709</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.006993864197283983</v>
+        <v>0.05758543685078621</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.001884238095954061</v>
+        <v>0.03615984693169594</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.002807395067065954</v>
+        <v>0.0111315893009305</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0004508739511948079</v>
+        <v>0.005207177251577377</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.004839795641601086</v>
+        <v>0.05997680872678757</v>
       </c>
       <c r="FG3" t="n">
-        <v>5.358539056032896e-05</v>
+        <v>0.03517725318670273</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.002232616767287254</v>
+        <v>0.1262361407279968</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.002483268501237035</v>
+        <v>0.03613594546914101</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.003853149712085724</v>
+        <v>0.06895468384027481</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.006264231633394957</v>
+        <v>0.07508771121501923</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.005440622568130493</v>
+        <v>0.09093862771987915</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0001200343249365687</v>
+        <v>0.01874150335788727</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.004736710339784622</v>
+        <v>0.1763552725315094</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.01192435156553984</v>
+        <v>0.0329538956284523</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001320639043115079</v>
+        <v>0.06236175820231438</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01331223919987679</v>
+        <v>0.06390546262264252</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.001502977451309562</v>
+        <v>0.09277743101119995</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.006799798458814621</v>
+        <v>0.053377915173769</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.003408425487577915</v>
+        <v>0.05921027436852455</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.004019945859909058</v>
+        <v>0.1300751268863678</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002613113261759281</v>
+        <v>0.03700249269604683</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.005287937819957733</v>
+        <v>0.1137573048472404</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0004674619995057583</v>
+        <v>0.02252696827054024</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001467662979848683</v>
+        <v>0.04559604451060295</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.002503884490579367</v>
+        <v>0.009626844897866249</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001059033907949924</v>
+        <v>0.09387635439634323</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.003435889491811395</v>
+        <v>0.01462337747216225</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.002021822612732649</v>
+        <v>0.06456682085990906</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.003523070365190506</v>
+        <v>0.04870862513780594</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0003516424330882728</v>
+        <v>0.07147630304098129</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.00493799801915884</v>
+        <v>0.05921363830566406</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.001808495493605733</v>
+        <v>0.0293465368449688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0002351682924199849</v>
+        <v>0.003572234651073813</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000290246622171253</v>
+        <v>0.01736037060618401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006910007214173675</v>
+        <v>0.0007075238390825689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000204811803996563</v>
+        <v>0.008104057051241398</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001002960139885545</v>
+        <v>0.001111818244680762</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001612287305761129</v>
+        <v>0.004792677238583565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000295104633551091</v>
+        <v>0.0003722902620211244</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0002015625796047971</v>
+        <v>0.0001727138296701014</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009298409568145871</v>
+        <v>0.0001189781469292939</v>
       </c>
       <c r="J4" t="n">
-        <v>3.811268106801435e-05</v>
+        <v>0.004458880051970482</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001036386311170645</v>
+        <v>0.01060701068490744</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008551434730179608</v>
+        <v>0.00149741827044636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001381768379360437</v>
+        <v>0.006833284627646208</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0008495188667438924</v>
+        <v>0.003950921818614006</v>
       </c>
       <c r="O4" t="n">
-        <v>4.276320396456867e-05</v>
+        <v>0.006875353865325451</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002382111269980669</v>
+        <v>0.0007141479873098433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003102453192695975</v>
+        <v>0.002029065042734146</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0009850964415818453</v>
+        <v>0.001401029876433313</v>
       </c>
       <c r="S4" t="n">
-        <v>5.564758612308651e-05</v>
+        <v>2.322545333299786e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0001590315805515274</v>
+        <v>0.001563115627504885</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001468950504204258</v>
+        <v>0.0001127341893152334</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0003405243624001741</v>
+        <v>0.00234695803374052</v>
       </c>
       <c r="W4" t="n">
-        <v>8.543013245798647e-05</v>
+        <v>0.001176090794615448</v>
       </c>
       <c r="X4" t="n">
-        <v>3.435044345678762e-05</v>
+        <v>0.00113271118607372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0001734410470817238</v>
+        <v>0.002281093271449208</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.16307108127512e-05</v>
+        <v>0.0009506892529316247</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.982213871087879e-05</v>
+        <v>0.001338356523774564</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.162623660406098e-05</v>
+        <v>0.0007957924390211701</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.287817036034539e-05</v>
+        <v>0.002581616397947073</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0001386064541293308</v>
+        <v>0.0005828625289723277</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.599563054507598e-05</v>
+        <v>0.000851096585392952</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0002295250160386786</v>
+        <v>0.00155360100325197</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.399850927758962e-05</v>
+        <v>0.00086937565356493</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.906467100023292e-05</v>
+        <v>3.685918636620045e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0002182949101552367</v>
+        <v>0.001056204666383564</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0004271759244147688</v>
+        <v>0.001081553171388805</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.205568282282911e-05</v>
+        <v>0.001329843420535326</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0003408329794183373</v>
+        <v>0.001554840477183461</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.708830526098609e-05</v>
+        <v>8.282873022835702e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.47958877380006e-05</v>
+        <v>0.0006016973638907075</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.804263648518827e-06</v>
+        <v>0.0008178106509149075</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0003860200813505799</v>
+        <v>0.002377439988777041</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.541083813412115e-05</v>
+        <v>0.0002301600179634988</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0001391571277054027</v>
+        <v>0.001002882490865886</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.90515516907908e-05</v>
+        <v>0.001021085772663355</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001611623447388411</v>
+        <v>0.0003005536855198443</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0005610386724583805</v>
+        <v>0.01263829786330462</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0007391500985249877</v>
+        <v>0.0009713449398986995</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0001663034490775317</v>
+        <v>0.003086738288402557</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0002151881490135565</v>
+        <v>0.002680213423445821</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0008001706446520984</v>
+        <v>0.0008024749695323408</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001133325349655934</v>
+        <v>0.00159469258505851</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0002549790369812399</v>
+        <v>0.001219559460878372</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0002626055502332747</v>
+        <v>0.001858482253737748</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.354733987885993e-05</v>
+        <v>0.001798610202968121</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001300180301768705</v>
+        <v>0.002735120942816138</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0001297456037718803</v>
+        <v>0.002392948139458895</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.05891068011988e-06</v>
+        <v>6.592622958123684e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0001763202162692323</v>
+        <v>0.003920956049114466</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0003599539923015982</v>
+        <v>0.003766872920095921</v>
       </c>
       <c r="BI4" t="n">
-        <v>8.251648978330195e-05</v>
+        <v>0.001170886680483818</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0001370249083265662</v>
+        <v>0.001778694218955934</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0002158069401048124</v>
+        <v>3.762499545700848e-06</v>
       </c>
       <c r="BL4" t="n">
-        <v>8.466498911730014e-06</v>
+        <v>0.001219439902342856</v>
       </c>
       <c r="BM4" t="n">
-        <v>4.611978147295304e-05</v>
+        <v>0.001691277720965445</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0003691960882861167</v>
+        <v>0.0004477601614780724</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001136885039159097</v>
+        <v>0.00200155726633966</v>
       </c>
       <c r="BP4" t="n">
-        <v>5.026981671107933e-05</v>
+        <v>0.0014241001335904</v>
       </c>
       <c r="BQ4" t="n">
-        <v>4.508759593591094e-05</v>
+        <v>0.001048860256560147</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0001123336332966574</v>
+        <v>0.000463497155578807</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0001841693883761764</v>
+        <v>0.0003463695466052741</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0002136877592420205</v>
+        <v>0.000941409554798156</v>
       </c>
       <c r="BU4" t="n">
-        <v>4.830133548239246e-05</v>
+        <v>0.0004128675791434944</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0002670277608558536</v>
+        <v>0.005963305477052927</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.726178642362356e-08</v>
+        <v>0.0002319259947398677</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0002190451923524961</v>
+        <v>0.001274128211662173</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0002582170709501952</v>
+        <v>0.0008992821094579995</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0001146861031884328</v>
+        <v>0.003672189544886351</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0001502142986282706</v>
+        <v>0.0003915723937097937</v>
       </c>
       <c r="CB4" t="n">
-        <v>6.299764208961278e-05</v>
+        <v>0.001031232648529112</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0004846233932767063</v>
+        <v>0.001507960492745042</v>
       </c>
       <c r="CD4" t="n">
-        <v>5.043192140874453e-05</v>
+        <v>0.001158629776909947</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0002169409854104742</v>
+        <v>0.002840152941644192</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0001616869412828237</v>
+        <v>0.0009627472027204931</v>
       </c>
       <c r="CG4" t="n">
-        <v>6.266598211368546e-05</v>
+        <v>0.0007579732919111848</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0002243372582597658</v>
+        <v>0.0008981171995401382</v>
       </c>
       <c r="CI4" t="n">
-        <v>2.328951450181194e-05</v>
+        <v>0.001253352966159582</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.863545185187832e-05</v>
+        <v>0.0004986185231246054</v>
       </c>
       <c r="CK4" t="n">
-        <v>3.506959274091059e-06</v>
+        <v>0.0002503466093912721</v>
       </c>
       <c r="CL4" t="n">
-        <v>9.824891458265483e-05</v>
+        <v>0.0006418257253244519</v>
       </c>
       <c r="CM4" t="n">
-        <v>3.506115899654105e-05</v>
+        <v>0.000749296392314136</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.0005051819607615471</v>
+        <v>0.0007934977766126394</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0001499628706369549</v>
+        <v>0.001496606855653226</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0002465321158524603</v>
+        <v>0.002242479706183076</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.970330413314514e-05</v>
+        <v>0.00192416156642139</v>
       </c>
       <c r="CR4" t="n">
-        <v>5.94958764850162e-05</v>
+        <v>0.002303340239450336</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.541996607556939e-05</v>
+        <v>0.001169180381111801</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.202041261829436e-05</v>
+        <v>0.002795734442770481</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0001773811382008716</v>
+        <v>0.0002610581577755511</v>
       </c>
       <c r="CV4" t="n">
-        <v>5.117198452353477e-05</v>
+        <v>0.0009152380516752601</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0002377520431764424</v>
+        <v>0.002118065720424056</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0001574350899318233</v>
+        <v>0.0009684470715001225</v>
       </c>
       <c r="CY4" t="n">
-        <v>6.770885374862701e-05</v>
+        <v>0.001716495491564274</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0002937688259407878</v>
+        <v>0.0006913709221407771</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.169438761891797e-05</v>
+        <v>0.001557646552100778</v>
       </c>
       <c r="DB4" t="n">
-        <v>4.338818689575419e-05</v>
+        <v>0.0004674787633121014</v>
       </c>
       <c r="DC4" t="n">
-        <v>4.42351883975789e-05</v>
+        <v>0.0002259471511933953</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0001495063188485801</v>
+        <v>0.0005060856929048896</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0001817836600821465</v>
+        <v>0.0008537675603292882</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.0003280246164649725</v>
+        <v>0.002114941831678152</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.000460857292637229</v>
+        <v>0.0008356929174624383</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0002107126638293266</v>
+        <v>0.005734729114919901</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0002139167918357998</v>
+        <v>0.0007412733975797892</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0001943015959113836</v>
+        <v>0.0008845830452628434</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0002780838112812489</v>
+        <v>0.0009256663615815341</v>
       </c>
       <c r="DL4" t="n">
-        <v>3.557173477020115e-05</v>
+        <v>0.002132208552211523</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0001015950838336721</v>
+        <v>8.735476876609027e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>3.56794880644884e-05</v>
+        <v>0.002100558253005147</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0002147075574612245</v>
+        <v>8.909092139219865e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0001640189148019999</v>
+        <v>0.001309834886342287</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0001618551177671179</v>
+        <v>0.0001581347896717489</v>
       </c>
       <c r="DR4" t="n">
-        <v>4.624042776413262e-05</v>
+        <v>3.568938700482249e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0001911860454129055</v>
+        <v>0.002927093068137765</v>
       </c>
       <c r="DT4" t="n">
-        <v>8.128331683110446e-05</v>
+        <v>0.0001918605994433165</v>
       </c>
       <c r="DU4" t="n">
-        <v>8.103020809357986e-05</v>
+        <v>0.0001191769551951438</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0001756769197527319</v>
+        <v>0.001318423892371356</v>
       </c>
       <c r="DW4" t="n">
-        <v>6.468582432717085e-05</v>
+        <v>0.001364183379337192</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.027802111115307e-05</v>
+        <v>6.496581772807986e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0001331094244960696</v>
+        <v>0.003153061727061868</v>
       </c>
       <c r="DZ4" t="n">
-        <v>7.526053377659991e-05</v>
+        <v>0.000778087938670069</v>
       </c>
       <c r="EA4" t="n">
-        <v>8.942755812313408e-05</v>
+        <v>0.002328017260879278</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0001194552460219711</v>
+        <v>0.0004783762851729989</v>
       </c>
       <c r="EC4" t="n">
-        <v>4.955978147336282e-05</v>
+        <v>9.153564315056428e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001267570041818544</v>
+        <v>4.876360617345199e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001061378206941299</v>
+        <v>0.0003175627207383513</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.621178984758444e-05</v>
+        <v>5.118001718074083e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0002987097832374275</v>
+        <v>0.001736726961098611</v>
       </c>
       <c r="EH4" t="n">
-        <v>6.867799675092101e-05</v>
+        <v>0.0004843703645747155</v>
       </c>
       <c r="EI4" t="n">
-        <v>3.072182880714536e-05</v>
+        <v>0.0004934007301926613</v>
       </c>
       <c r="EJ4" t="n">
-        <v>6.048612340237014e-05</v>
+        <v>0.0003073464904446155</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0002176542911911383</v>
+        <v>0.00110023224260658</v>
       </c>
       <c r="EL4" t="n">
-        <v>7.574698247481138e-05</v>
+        <v>0.0007799080922268331</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0001447214017389342</v>
+        <v>0.0006377972313202918</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0001088231729227118</v>
+        <v>7.138070941437036e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0001530498266220093</v>
+        <v>0.001092988299205899</v>
       </c>
       <c r="EP4" t="n">
-        <v>6.30845024716109e-05</v>
+        <v>0.002495845779776573</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0001191492192447186</v>
+        <v>0.000679287186358124</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0001031779102049768</v>
+        <v>0.001950673293322325</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001737913262331858</v>
+        <v>0.002152883913367987</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.809058969432954e-06</v>
+        <v>0.005339976865798235</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001133282494265586</v>
+        <v>0.0002915791119448841</v>
       </c>
       <c r="EV4" t="n">
-        <v>4.99769339512568e-05</v>
+        <v>0.00143450521863997</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0001148517912952229</v>
+        <v>0.0004649438778869808</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.357121047680266e-05</v>
+        <v>0.0008784859674051404</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0002264219074277207</v>
+        <v>0.002476747613400221</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0001648174948059022</v>
+        <v>0.0002410043380223215</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.23583431559382e-05</v>
+        <v>0.001216395176015794</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.000195119486306794</v>
+        <v>0.0006277484353631735</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.246838994324207e-05</v>
+        <v>0.001692235702648759</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.169855310465209e-05</v>
+        <v>0.0005905822617933154</v>
       </c>
       <c r="FE4" t="n">
-        <v>6.50864967610687e-05</v>
+        <v>0.0001255128590855747</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0001671438367338851</v>
+        <v>0.0006963195046409965</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.573075107648037e-05</v>
+        <v>0.0007073722663335502</v>
       </c>
       <c r="FH4" t="n">
-        <v>9.716756176203489e-05</v>
+        <v>0.001277662813663483</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0001286715996684507</v>
+        <v>0.0004326797206886113</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0001280393189517781</v>
+        <v>0.001788910711184144</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0003277280484326184</v>
+        <v>0.0003628848062362522</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0002566600742284209</v>
+        <v>0.0005013243644498289</v>
       </c>
       <c r="FM4" t="n">
-        <v>6.610218406422064e-05</v>
+        <v>0.0006568895769305527</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0001187454690807499</v>
+        <v>0.0005765114910900593</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0002222907351097092</v>
+        <v>0.001413187594152987</v>
       </c>
       <c r="FP4" t="n">
-        <v>3.513092087814584e-05</v>
+        <v>0.0005204136250540614</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0002294077858095989</v>
+        <v>0.002284504938870668</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.221555612573866e-05</v>
+        <v>0.0003541677433531731</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.000273114099400118</v>
+        <v>0.002732086926698685</v>
       </c>
       <c r="FT4" t="n">
-        <v>7.755818660371006e-05</v>
+        <v>0.004459661431610584</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0001014043227769434</v>
+        <v>0.0009535577264614403</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0001346678182017058</v>
+        <v>0.0001629658654564992</v>
       </c>
       <c r="FW4" t="n">
-        <v>6.055946869309992e-06</v>
+        <v>0.0009739403612911701</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.659685171442106e-05</v>
+        <v>0.000723009929060936</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.000126407656352967</v>
+        <v>0.001463423715904355</v>
       </c>
       <c r="FZ4" t="n">
-        <v>5.272455382510088e-05</v>
+        <v>0.001520468504168093</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0001835349830798805</v>
+        <v>0.001301752985455096</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.000215798121644184</v>
+        <v>0.0007170616881921887</v>
       </c>
       <c r="GC4" t="n">
-        <v>4.777065259986557e-05</v>
+        <v>0.002226592972874641</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0001159245512099005</v>
+        <v>0.001486727502197027</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.000148548511788249</v>
+        <v>0.00311807612888515</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001300671865465119</v>
+        <v>0.0005813090829178691</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0001458154438296333</v>
+        <v>0.0008882541442289948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004503099247813225</v>
+        <v>1.706500552245416e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01019935682415962</v>
+        <v>0.0003432284574955702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003054455853998661</v>
+        <v>4.561223249766044e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01467217225581408</v>
+        <v>0.000133984416606836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002271083649247885</v>
+        <v>0.0001957709901034832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006255235057324171</v>
+        <v>0.0001832998386817053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008194714784622192</v>
+        <v>1.75109671545215e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006399716250598431</v>
+        <v>7.197977538453415e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02864805981516838</v>
+        <v>2.343643427593634e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01019251439720392</v>
+        <v>1.399024768033996e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004587248899042606</v>
+        <v>0.0003216319892089814</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01379692368209362</v>
+        <v>5.190800584387034e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01284888479858637</v>
+        <v>0.0001556168572278693</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00528876343742013</v>
+        <v>0.00023328946554102</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005087079014629126</v>
+        <v>0.0002335358440177515</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01102682016789913</v>
+        <v>7.065316458465531e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003823172533884645</v>
+        <v>4.450626511243172e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03129954263567924</v>
+        <v>5.107394463266246e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0008952911593951285</v>
+        <v>2.756879257503897e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.217412111349404e-05</v>
+        <v>7.938736962387338e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002473568776622415</v>
+        <v>2.213684820162598e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.006679468788206577</v>
+        <v>8.781606993579771e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>0.005096658132970333</v>
+        <v>1.856785456766374e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003564287442713976</v>
+        <v>7.204127905424684e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.008859368041157722</v>
+        <v>1.884625453385524e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0004195341316517442</v>
+        <v>6.272633527260041e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.003911573905497789</v>
+        <v>1.173910277429968e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002219846239313483</v>
+        <v>4.062067819177173e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.006784432101994753</v>
+        <v>4.9486210627947e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005193639080971479</v>
+        <v>9.257015335606411e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.005698054097592831</v>
+        <v>6.965068314457312e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.005779220722615719</v>
+        <v>8.803393575362861e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0007807649089954793</v>
+        <v>2.633582698763348e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.005613973829895258</v>
+        <v>5.947839235886931e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.006730252876877785</v>
+        <v>2.930619302787818e-08</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.007124744821339846</v>
+        <v>4.585223359754309e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.002531867474317551</v>
+        <v>1.687577605480328e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.001576371025294065</v>
+        <v>7.748797361273319e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.004526940640062094</v>
+        <v>1.597869049874134e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.006035903003066778</v>
+        <v>3.038774593733251e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00233184383250773</v>
+        <v>2.488880818418693e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01627728343009949</v>
+        <v>3.832982110907324e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0006197324255481362</v>
+        <v>1.006404181680409e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.00635227095335722</v>
+        <v>6.576783107448136e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0005159863503649831</v>
+        <v>4.699716100731166e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.002109385095536709</v>
+        <v>5.706962474505417e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.004023980349302292</v>
+        <v>0.0002390483132330701</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.01342896930873394</v>
+        <v>1.264109869225649e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0002651214599609375</v>
+        <v>2.869091258617118e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.002816100604832172</v>
+        <v>2.177178430429194e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01670685224235058</v>
+        <v>6.565111834788695e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.004926100373268127</v>
+        <v>7.471915159840137e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.003143999259918928</v>
+        <v>3.638113412307575e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01465100236237049</v>
+        <v>3.909121005563065e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.00539160892367363</v>
+        <v>2.258482163597364e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.003750822972506285</v>
+        <v>9.247093112207949e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.004455513320863247</v>
+        <v>4.990355228073895e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001045303884893656</v>
+        <v>3.190139614162035e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01041459664702415</v>
+        <v>0.0002173642860725522</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.009309499524533749</v>
+        <v>0.0001178908642032184</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008271428756415844</v>
+        <v>5.899788084207103e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01588620990514755</v>
+        <v>2.147508348571137e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.005688461009413004</v>
+        <v>3.202620064257644e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0009084144257940352</v>
+        <v>5.606190825346857e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001126818388001993</v>
+        <v>3.263908183726016e-06</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.006584111135452986</v>
+        <v>3.684354669530876e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001554707530885935</v>
+        <v>1.403307578584645e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001141903805546463</v>
+        <v>1.335791057499591e-05</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.003712073201313615</v>
+        <v>2.159636642318219e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0032756133005023</v>
+        <v>4.159581294516101e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.006457398179918528</v>
+        <v>6.658838628936792e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.004276771564036608</v>
+        <v>8.521816198481247e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.006649937015026808</v>
+        <v>3.408553311601281e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.004191393498331308</v>
+        <v>0.0001353780680801719</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.001364685362204909</v>
+        <v>3.594777444959618e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.006695970892906189</v>
+        <v>3.717197978403419e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.004789954051375389</v>
+        <v>9.155393854598515e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.004129547625780106</v>
+        <v>5.362335650715977e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.004164204001426697</v>
+        <v>4.258752596797422e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0002359288046136498</v>
+        <v>9.424020390724763e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01227020751684904</v>
+        <v>6.605914677493274e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002008611103519797</v>
+        <v>3.315395588288084e-06</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.006556108593940735</v>
+        <v>6.219077476998791e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.000542405410669744</v>
+        <v>5.330443855200429e-07</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00020018988288939</v>
+        <v>2.840822162397671e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001765595516189933</v>
+        <v>3.29699287249241e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.002997922711074352</v>
+        <v>2.494331602065358e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0007269998313859105</v>
+        <v>4.2956460674759e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001428541610948741</v>
+        <v>9.292289178119972e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.003179727122187614</v>
+        <v>6.572909114765935e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.005892965011298656</v>
+        <v>4.011416967841797e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001592964399605989</v>
+        <v>5.211916868574917e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0007298042182810605</v>
+        <v>1.279752996197203e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.002681059297174215</v>
+        <v>1.472180429118453e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0004998891381546855</v>
+        <v>2.432701148791239e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.156506525352597e-05</v>
+        <v>2.424849117232952e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0007877296302467585</v>
+        <v>8.734571019886062e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.007374174427241087</v>
+        <v>0.0001378260785713792</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.00353016285225749</v>
+        <v>2.993319139932282e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002209174912422895</v>
+        <v>6.194067282194737e-06</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.005870528519153595</v>
+        <v>4.511744919000193e-05</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0002640775637701154</v>
+        <v>1.411939592799172e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001415183069184422</v>
+        <v>3.221221413696185e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.002908094087615609</v>
+        <v>5.58147621632088e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.004395319148898125</v>
+        <v>3.313197521492839e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0001320948358625174</v>
+        <v>2.744969970081002e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0006638633203692734</v>
+        <v>2.913820935646072e-07</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.004877515602856874</v>
+        <v>9.25015592656564e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.006204586941748857</v>
+        <v>5.375503678806126e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01476889103651047</v>
+        <v>8.096924284473062e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01454737409949303</v>
+        <v>7.348539656959474e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001105525996536016</v>
+        <v>3.352252315380611e-05</v>
       </c>
       <c r="DI5" t="n">
-        <v>7.690026541240513e-05</v>
+        <v>1.467483252781676e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01361398212611675</v>
+        <v>7.100480434019119e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.005989199504256248</v>
+        <v>5.815734039060771e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>8.475821232423186e-05</v>
+        <v>1.431881264579715e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0004360921739134938</v>
+        <v>1.878946568467654e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0004641588311642408</v>
+        <v>2.288915993631235e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0004985483828932047</v>
+        <v>3.044884215341881e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.007675123400986195</v>
+        <v>1.18041089081089e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.004344139248132706</v>
+        <v>0.0001066417462425306</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.00419792253524065</v>
+        <v>3.24863322020974e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.002254574093967676</v>
+        <v>5.802635132567957e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>6.674253381788731e-05</v>
+        <v>1.943720781127922e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.003051856998354197</v>
+        <v>2.84051875496516e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.001340370741672814</v>
+        <v>9.250372386304662e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.002283191774040461</v>
+        <v>2.138306081178598e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0007676088716834784</v>
+        <v>1.795658863557037e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.001317986170761287</v>
+        <v>1.286680981138488e-05</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001256882911548018</v>
+        <v>7.530091534135863e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.002906531328335404</v>
+        <v>2.394142939010635e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.002009688643738627</v>
+        <v>4.789149170392193e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.002235219813883305</v>
+        <v>5.24910501553677e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>5.501165287569165e-05</v>
+        <v>8.412323222728446e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.003475124249234796</v>
+        <v>2.258243330288678e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.004171130247414112</v>
+        <v>2.029091774602421e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.01326633617281914</v>
+        <v>4.692400398198515e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.00114284292794764</v>
+        <v>8.994668860395905e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0006427027983590961</v>
+        <v>4.290928336558864e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0007491919677704573</v>
+        <v>1.463573426008224e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002543883863836527</v>
+        <v>1.739530489430763e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.001063908566720784</v>
+        <v>6.520202441606671e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0004383370105642825</v>
+        <v>8.294307917822152e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.005159900058060884</v>
+        <v>4.652127245208248e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.001325045013800263</v>
+        <v>1.251799403689802e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.004663521889597178</v>
+        <v>6.205291811056668e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0001549124717712402</v>
+        <v>4.630917828762904e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.002218624576926231</v>
+        <v>3.075563290622085e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.007274739909917116</v>
+        <v>5.21784349984955e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0137109188362956</v>
+        <v>8.498816168867052e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.002034943085163832</v>
+        <v>5.29840326635167e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001211421214975417</v>
+        <v>1.309210165345576e-05</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.003425334114581347</v>
+        <v>2.531288009777199e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002849311800673604</v>
+        <v>9.130380931310356e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.005248368252068758</v>
+        <v>4.929015631205402e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0003283695550635457</v>
+        <v>3.08856988340267e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0001895863097161055</v>
+        <v>2.904889515775722e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.001666891388595104</v>
+        <v>3.738860641533392e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.004296775441616774</v>
+        <v>3.615526657085866e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0006836616666987538</v>
+        <v>3.209498390788212e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0001719065476208925</v>
+        <v>9.735340427141637e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.005637866910547018</v>
+        <v>9.064486221177503e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.004731508903205395</v>
+        <v>1.097136828320799e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0007503809174522758</v>
+        <v>2.306083661096636e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.005389207974076271</v>
+        <v>2.317416874575429e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.001809642417356372</v>
+        <v>9.624363156035542e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.005681575741618872</v>
+        <v>5.780263745691627e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.003590185660868883</v>
+        <v>3.4653305192478e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.004192652180790901</v>
+        <v>4.274810271454044e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002074344083666801</v>
+        <v>6.734589987900108e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0004897972103208303</v>
+        <v>3.383863077033311e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.004744076170027256</v>
+        <v>3.053232285310514e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0041283187456429</v>
+        <v>0.0001024771190714091</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001988383708521724</v>
+        <v>3.288967855041847e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.007159797474741936</v>
+        <v>9.982154733734205e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.005364156793802977</v>
+        <v>3.922309042536654e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.004387256223708391</v>
+        <v>5.286862869979814e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.006966939195990562</v>
+        <v>6.38155615888536e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.003076479304581881</v>
+        <v>1.344194242847152e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.005364124663174152</v>
+        <v>4.630328839994036e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.00595548702403903</v>
+        <v>1.856440576375462e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.009681760333478451</v>
+        <v>4.018461550003849e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.005008954089134932</v>
+        <v>9.619265620131046e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.004129320848733187</v>
+        <v>6.81825986248441e-06</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.000747387413866818</v>
+        <v>1.1318227279844e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0006352334166876972</v>
+        <v>2.488189238647465e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.004120024852454662</v>
+        <v>1.3119621144142e-05</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01387804187834263</v>
+        <v>4.587228977470659e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0007961158407852054</v>
+        <v>1.467104812036268e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0003317112859804183</v>
+        <v>0.4802160859107971</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0002899040118791163</v>
+        <v>2.49001932144165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001913846703246236</v>
+        <v>0.2041821330785751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005083861760795116</v>
+        <v>0.8774770498275757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001468942617066205</v>
+        <v>0.2370086014270782</v>
       </c>
       <c r="F7" t="n">
-        <v>7.390341488644481e-05</v>
+        <v>0.6000593304634094</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002649678790476173</v>
+        <v>0.0609402135014534</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003301054239273071</v>
+        <v>0.1365048736333847</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001681468682363629</v>
+        <v>0.04584205150604248</v>
       </c>
       <c r="J7" t="n">
-        <v>5.845287523698062e-05</v>
+        <v>0.677767276763916</v>
       </c>
       <c r="K7" t="n">
-        <v>1.953005630639382e-05</v>
+        <v>1.626793742179871</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002038540318608284</v>
+        <v>0.04501878097653389</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005429243901744485</v>
+        <v>0.8595240712165833</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0009278287179768085</v>
+        <v>0.453196108341217</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001968676369870082</v>
+        <v>0.9144638776779175</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0003428453055676073</v>
+        <v>0.1053339168429375</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000368852139217779</v>
+        <v>0.1354575753211975</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001842242083512247</v>
+        <v>0.1456799656152725</v>
       </c>
       <c r="S7" t="n">
-        <v>6.168745312606916e-05</v>
+        <v>0.04903936386108398</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0004243026196490973</v>
+        <v>0.2624314427375793</v>
       </c>
       <c r="U7" t="n">
-        <v>4.064545282744803e-05</v>
+        <v>0.1321608275175095</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0004233679501339793</v>
+        <v>0.3316835761070251</v>
       </c>
       <c r="W7" t="n">
-        <v>1.028765109367669e-05</v>
+        <v>0.1898823976516724</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0002068213216261938</v>
+        <v>0.1697462946176529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003670685109682381</v>
+        <v>0.2604742646217346</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.000168232130818069</v>
+        <v>0.2186012864112854</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.800972864264622e-05</v>
+        <v>0.2489670515060425</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.985052798176184e-05</v>
+        <v>0.06365740299224854</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.848232730291784e-05</v>
+        <v>0.3874821364879608</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000104957347502932</v>
+        <v>0.03079741448163986</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001392377016600221</v>
+        <v>0.1040319055318832</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.322579378727823e-05</v>
+        <v>0.09495142102241516</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0002432516776025295</v>
+        <v>0.02455220371484756</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001887605903903022</v>
+        <v>0.08567257225513458</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0002281751076225191</v>
+        <v>0.01015725452452898</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0004844834911637008</v>
+        <v>0.1203829795122147</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.369119829381816e-05</v>
+        <v>0.2896366119384766</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0004144502454437315</v>
+        <v>0.2706880271434784</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0002021977561526</v>
+        <v>0.04789427295327187</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0001671955251367763</v>
+        <v>0.1698967069387436</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.177263953257352e-05</v>
+        <v>0.1325138211250305</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0004901405773125589</v>
+        <v>0.2710584700107574</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.224551619496197e-05</v>
+        <v>0.03898655250668526</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0002241615729872137</v>
+        <v>0.03621012344956398</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.330246055265889e-05</v>
+        <v>0.1522056311368942</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0003995852312073112</v>
+        <v>0.04337400570511818</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.000381257152184844</v>
+        <v>1.715846419334412</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.001399833941832185</v>
+        <v>0.01901964470744133</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.834663609974086e-05</v>
+        <v>0.1546428799629211</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0005365352844819427</v>
+        <v>0.2550527453422546</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0009994304273277521</v>
+        <v>0.03394831717014313</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.939694629982114e-05</v>
+        <v>0.029703538864851</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0003677177592180669</v>
+        <v>0.1471692025661469</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0004039975756313652</v>
+        <v>0.307311624288559</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.837146116187796e-05</v>
+        <v>0.1694959104061127</v>
       </c>
       <c r="BD7" t="n">
-        <v>6.655268953181803e-05</v>
+        <v>0.4068968594074249</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0003783501742873341</v>
+        <v>0.3655027747154236</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0002554740640334785</v>
+        <v>0.03094595670700073</v>
       </c>
       <c r="BG7" t="n">
-        <v>6.53307797620073e-05</v>
+        <v>0.6570713520050049</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0002863408881239593</v>
+        <v>0.3353335857391357</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0002045940927928314</v>
+        <v>0.1588214337825775</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0002990466018673033</v>
+        <v>0.257306694984436</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0005220549064688385</v>
+        <v>0.02382323518395424</v>
       </c>
       <c r="BL7" t="n">
-        <v>3.598515468183905e-05</v>
+        <v>0.262386828660965</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0001665097079239786</v>
+        <v>0.2394250631332397</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0005539903067983687</v>
+        <v>0.09699710458517075</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0002769906132016331</v>
+        <v>0.3257164061069489</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0002453817578498274</v>
+        <v>0.1663362085819244</v>
       </c>
       <c r="BQ7" t="n">
-        <v>7.039229240035638e-05</v>
+        <v>0.1209889501333237</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.000173092819750309</v>
+        <v>0.1051986292004585</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0003876028640661389</v>
+        <v>0.06810581684112549</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0003786435117945075</v>
+        <v>0.1568330079317093</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.066160984919406e-05</v>
+        <v>0.04404358938336372</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0002484632423147559</v>
+        <v>0.8236935138702393</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0004270489444024861</v>
+        <v>0.1330385655164719</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0002441800315864384</v>
+        <v>0.2030243128538132</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0006760064279660583</v>
+        <v>0.02566875144839287</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0002934327931143343</v>
+        <v>0.3803755640983582</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.000228657474508509</v>
+        <v>0.1244314312934875</v>
       </c>
       <c r="CB7" t="n">
-        <v>7.083671516738832e-05</v>
+        <v>0.01640796475112438</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0006430863286368549</v>
+        <v>0.2331307828426361</v>
       </c>
       <c r="CD7" t="n">
-        <v>5.717014573747292e-06</v>
+        <v>0.1548524349927902</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0003600250347517431</v>
+        <v>0.4093523919582367</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0003761974512599409</v>
+        <v>0.1753901392221451</v>
       </c>
       <c r="CG7" t="n">
-        <v>3.385302989045158e-05</v>
+        <v>0.03934106230735779</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0003685670380946249</v>
+        <v>0.1259098947048187</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0001486436813138425</v>
+        <v>0.1715948730707169</v>
       </c>
       <c r="CJ7" t="n">
-        <v>4.410712426761165e-05</v>
+        <v>0.06818289309740067</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.480920713627711e-05</v>
+        <v>0.02903700619935989</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.000224324205191806</v>
+        <v>0.1170044615864754</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001188744499813765</v>
+        <v>0.2097551673650742</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0006135974545031786</v>
+        <v>0.06953466683626175</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0001205999506055377</v>
+        <v>0.2195318341255188</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0001679175911704078</v>
+        <v>0.4206073880195618</v>
       </c>
       <c r="CQ7" t="n">
-        <v>8.13990191090852e-05</v>
+        <v>0.2785008251667023</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0001796221476979554</v>
+        <v>0.2223837077617645</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.000111335983092431</v>
+        <v>0.1865136921405792</v>
       </c>
       <c r="CT7" t="n">
-        <v>3.662922244984657e-05</v>
+        <v>0.1700621545314789</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0003213128657080233</v>
+        <v>0.08325726538896561</v>
       </c>
       <c r="CV7" t="n">
-        <v>3.270302840974182e-06</v>
+        <v>0.1260732710361481</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0003260057710576802</v>
+        <v>0.3346347212791443</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0003300620010122657</v>
+        <v>0.1620124727487564</v>
       </c>
       <c r="CY7" t="n">
-        <v>6.275828491197899e-05</v>
+        <v>0.1704171001911163</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0004827457596547902</v>
+        <v>0.1235872283577919</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0002013841440202668</v>
+        <v>0.2044519931077957</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.173927921627183e-05</v>
+        <v>0.08733807504177094</v>
       </c>
       <c r="DC7" t="n">
-        <v>8.935519872466102e-05</v>
+        <v>0.06058556586503983</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.000289363379124552</v>
+        <v>0.07804366946220398</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0001807767694117501</v>
+        <v>0.2471900135278702</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0006441277218982577</v>
+        <v>0.09979133307933807</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0006992394919507205</v>
+        <v>0.009102796204388142</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.000177319030626677</v>
+        <v>0.3577910661697388</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0001236375101143494</v>
+        <v>0.3212510049343109</v>
       </c>
       <c r="DJ7" t="n">
-        <v>8.773173613008112e-05</v>
+        <v>0.04990703612565994</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0004497362242545933</v>
+        <v>0.1528406590223312</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.32281184050953e-05</v>
+        <v>0.02859755232930183</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0004154459165874869</v>
+        <v>0.03253084048628807</v>
       </c>
       <c r="DN7" t="n">
-        <v>7.895687303971499e-06</v>
+        <v>0.2419404089450836</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0001550673187011853</v>
+        <v>0.07908870279788971</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001746627385728061</v>
+        <v>0.2111064791679382</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.000293091987259686</v>
+        <v>0.01208179816603661</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0001157151491497643</v>
+        <v>0.07094146311283112</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0001077219349099323</v>
+        <v>0.345503181219101</v>
       </c>
       <c r="DT7" t="n">
-        <v>9.355066868010908e-05</v>
+        <v>0.02432676032185555</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0001668613404035568</v>
+        <v>0.08338140696287155</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0001361288450425491</v>
+        <v>0.1592918485403061</v>
       </c>
       <c r="DW7" t="n">
-        <v>7.185943832155317e-05</v>
+        <v>0.1435035765171051</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001113717735279351</v>
+        <v>0.008455201052129269</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0002262718917336315</v>
+        <v>0.4712575972080231</v>
       </c>
       <c r="DZ7" t="n">
-        <v>3.568304236978292e-05</v>
+        <v>0.1246892288327217</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0002794003230519593</v>
+        <v>0.3188559114933014</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0001584684359841049</v>
+        <v>0.09883897006511688</v>
       </c>
       <c r="EC7" t="n">
-        <v>1.21027205750579e-05</v>
+        <v>0.0006418395787477493</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0001691890502115712</v>
+        <v>0.07097483426332474</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0001403459755238146</v>
+        <v>0.1392193734645844</v>
       </c>
       <c r="EF7" t="n">
-        <v>9.866264008451253e-05</v>
+        <v>0.009510062634944916</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0003023236349690706</v>
+        <v>0.217070147395134</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0003179146442562342</v>
+        <v>0.005428875330835581</v>
       </c>
       <c r="EI7" t="n">
-        <v>4.78545916848816e-05</v>
+        <v>0.03386199101805687</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002571275108493865</v>
+        <v>0.04117913544178009</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0005094263469800353</v>
+        <v>0.09487626701593399</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0001498018682468683</v>
+        <v>0.09908910095691681</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0002460797841195017</v>
+        <v>0.02990523539483547</v>
       </c>
       <c r="EN7" t="n">
-        <v>8.446766878478229e-05</v>
+        <v>0.03407151997089386</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0001417089806636795</v>
+        <v>0.147786021232605</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0003099357418250293</v>
+        <v>0.3000756800174713</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0001066984914359637</v>
+        <v>0.05948801711201668</v>
       </c>
       <c r="ER7" t="n">
-        <v>5.721807247027755e-05</v>
+        <v>0.1956118196249008</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001182162304758094</v>
+        <v>0.2676735818386078</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.39841057616286e-05</v>
+        <v>0.6099597215652466</v>
       </c>
       <c r="EU7" t="n">
-        <v>9.243675594916567e-05</v>
+        <v>0.1788685023784637</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.195954044116661e-05</v>
+        <v>0.3583844900131226</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0002443147241137922</v>
+        <v>0.06139926612377167</v>
       </c>
       <c r="EX7" t="n">
-        <v>4.484589226194657e-05</v>
+        <v>0.1072694286704063</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0003463141620159149</v>
+        <v>0.3396895229816437</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0003528719826135784</v>
+        <v>0.06514988839626312</v>
       </c>
       <c r="FA7" t="n">
-        <v>3.658359491964802e-05</v>
+        <v>0.09828847646713257</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0003024324250873178</v>
+        <v>0.1112685427069664</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001123026158893481</v>
+        <v>0.2077346742153168</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.612412233953364e-05</v>
+        <v>0.119819387793541</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.00013207238225732</v>
+        <v>0.02817059680819511</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0003548874228727072</v>
+        <v>0.1241941452026367</v>
       </c>
       <c r="FG7" t="n">
-        <v>8.180049189832062e-05</v>
+        <v>0.05495902523398399</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0001067710545612499</v>
+        <v>0.200295090675354</v>
       </c>
       <c r="FI7" t="n">
-        <v>8.725113730179146e-05</v>
+        <v>0.150987297296524</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0003249064029660076</v>
+        <v>0.2706958651542664</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0003300705284345895</v>
+        <v>0.1180684491991997</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0002474791835993528</v>
+        <v>0.05103092640638351</v>
       </c>
       <c r="FM7" t="n">
-        <v>6.542213668581098e-07</v>
+        <v>0.00690172566100955</v>
       </c>
       <c r="FN7" t="n">
-        <v>5.286536907078698e-05</v>
+        <v>0.2440304756164551</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0003172513388562948</v>
+        <v>0.3156125247478485</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.891965050366707e-05</v>
+        <v>0.1841456592082977</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0006497412687167525</v>
+        <v>0.1128841713070869</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0001447441172786057</v>
+        <v>0.08837977796792984</v>
       </c>
       <c r="FS7" t="n">
-        <v>6.385547749232501e-05</v>
+        <v>0.1653503775596619</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.130703306756914e-05</v>
+        <v>0.6756802797317505</v>
       </c>
       <c r="FU7" t="n">
-        <v>8.989749767351896e-05</v>
+        <v>0.2185043841600418</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0003786156885325909</v>
+        <v>0.1051516681909561</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0001111907695303671</v>
+        <v>0.07470905780792236</v>
       </c>
       <c r="FX7" t="n">
-        <v>8.477175288135186e-05</v>
+        <v>0.1291186362504959</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001417174935340881</v>
+        <v>0.2837357521057129</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0002145353646483272</v>
+        <v>0.1508272439241409</v>
       </c>
       <c r="GA7" t="n">
-        <v>8.021402754820883e-05</v>
+        <v>0.2155885994434357</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0003139993932563812</v>
+        <v>0.07769900560379028</v>
       </c>
       <c r="GC7" t="n">
-        <v>5.539092671824619e-05</v>
+        <v>0.2839240729808807</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0002906511654146016</v>
+        <v>0.1241344958543777</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0001673079532338306</v>
+        <v>0.6434189081192017</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0004318601277191192</v>
+        <v>0.06303861737251282</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0002007602015510201</v>
+        <v>0.1353228837251663</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001485214597778395</v>
+        <v>0.002836563624441624</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001080836227629334</v>
+        <v>0.01166623644530773</v>
       </c>
       <c r="C9" t="n">
-        <v>9.23320185393095e-05</v>
+        <v>0.001179021899588406</v>
       </c>
       <c r="D9" t="n">
-        <v>3.641687726485543e-05</v>
+        <v>0.004676206968724728</v>
       </c>
       <c r="E9" t="n">
-        <v>1.324916593148373e-05</v>
+        <v>0.004324353765696287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000178930422407575</v>
+        <v>0.002969377441331744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001445018569938838</v>
+        <v>0.0005139896529726684</v>
       </c>
       <c r="H9" t="n">
-        <v>4.126847670704592e-06</v>
+        <v>0.001256581977941096</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005453362828120589</v>
+        <v>0.0003723552508745342</v>
       </c>
       <c r="J9" t="n">
-        <v>4.291212098905817e-05</v>
+        <v>0.00247417064383626</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001281994045712054</v>
+        <v>0.007702059112489223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002695878793019801</v>
+        <v>0.0009824172593653202</v>
       </c>
       <c r="M9" t="n">
-        <v>1.961811176443007e-05</v>
+        <v>0.006200568284839392</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000110351960756816</v>
+        <v>0.005875391885638237</v>
       </c>
       <c r="O9" t="n">
-        <v>7.211937918327749e-05</v>
+        <v>0.004520355258136988</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0002256350126117468</v>
+        <v>0.001722950721159577</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.9346468586009e-05</v>
+        <v>0.003245121799409389</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0005136259132996202</v>
+        <v>0.0003492091782391071</v>
       </c>
       <c r="S9" t="n">
-        <v>5.616063572233543e-05</v>
+        <v>0.0004305793845560402</v>
       </c>
       <c r="T9" t="n">
-        <v>6.923936598468572e-05</v>
+        <v>0.002463819459080696</v>
       </c>
       <c r="U9" t="n">
-        <v>4.742627061204985e-05</v>
+        <v>0.000519320834428072</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001411889679729939</v>
+        <v>0.001306849997490644</v>
       </c>
       <c r="W9" t="n">
-        <v>9.02039828361012e-05</v>
+        <v>0.0009431102080270648</v>
       </c>
       <c r="X9" t="n">
-        <v>4.278641790733673e-05</v>
+        <v>0.001767270732671022</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.949075320037082e-05</v>
+        <v>0.0006889778887853026</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.528380537114572e-05</v>
+        <v>0.0002340914070373401</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.691724699223414e-05</v>
+        <v>0.0004668720939662308</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.646627374109812e-05</v>
+        <v>0.0006648986600339413</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.958673035725951e-05</v>
+        <v>0.00243614986538887</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.343901077343617e-06</v>
+        <v>0.001353767118416727</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001283398160012439</v>
+        <v>0.003301134100183845</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.267536521889269e-05</v>
+        <v>0.001194564858451486</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.598375431261957e-05</v>
+        <v>0.0004458551993593574</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0001441016065655276</v>
+        <v>0.001554133137688041</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.720298112370074e-05</v>
+        <v>0.0001262672885786742</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.768097955500707e-05</v>
+        <v>0.00119121209718287</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.223592153110076e-05</v>
+        <v>0.001639081165194511</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.126654650666751e-05</v>
+        <v>0.001980365719646215</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.199876952450722e-05</v>
+        <v>0.000201922346604988</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.149910793988965e-05</v>
+        <v>0.0003455829573795199</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.077224260370713e-05</v>
+        <v>0.0006823252770118415</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0002429795422358438</v>
+        <v>0.0009516722057014704</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.213310290244408e-05</v>
+        <v>0.0006017584819346666</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.890543980058283e-05</v>
+        <v>0.000354883522959426</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.086423127271701e-06</v>
+        <v>0.0009661646327003837</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.000199788817553781</v>
+        <v>0.001897850073873997</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.419530109269544e-05</v>
+        <v>0.009991532191634178</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0002970861096400768</v>
+        <v>0.0004711774236056954</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.498806760646403e-05</v>
+        <v>0.0005568896303884685</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.389850361505523e-05</v>
+        <v>0.001386599848046899</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0002108222979586571</v>
+        <v>0.00139738735742867</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.359488517977297e-05</v>
+        <v>0.0006340764230117202</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0001089861034415662</v>
+        <v>0.0006481839809566736</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0002523488074075431</v>
+        <v>0.0005549244815483689</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.201431435532868e-05</v>
+        <v>0.001037685899063945</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0001308676874032244</v>
+        <v>0.001827092375606298</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.095941742183641e-05</v>
+        <v>0.001577268820255995</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.81057803274598e-05</v>
+        <v>0.0005180567968636751</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0001404045324306935</v>
+        <v>0.004775119479745626</v>
       </c>
       <c r="BH9" t="n">
-        <v>9.086044155992568e-05</v>
+        <v>0.001870519598014653</v>
       </c>
       <c r="BI9" t="n">
-        <v>8.811178122414276e-05</v>
+        <v>0.0003705284034367651</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0002480797993484885</v>
+        <v>0.002951355185359716</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.000115895461931359</v>
+        <v>0.0005961360293440521</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.696982508292422e-05</v>
+        <v>0.0008423217805102468</v>
       </c>
       <c r="BM9" t="n">
-        <v>9.278014476876706e-05</v>
+        <v>0.001931849867105484</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0001644740987103432</v>
+        <v>0.0003409285563975573</v>
       </c>
       <c r="BO9" t="n">
-        <v>8.587973570683971e-05</v>
+        <v>0.002877010963857174</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.461417650716612e-05</v>
+        <v>0.003443550784140825</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6.241475148272002e-06</v>
+        <v>0.0002534691011533141</v>
       </c>
       <c r="BR9" t="n">
-        <v>6.432716327253729e-05</v>
+        <v>0.00122041767463088</v>
       </c>
       <c r="BS9" t="n">
-        <v>9.050845983438194e-05</v>
+        <v>0.0006171851418912411</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0001001138443825766</v>
+        <v>4.875810918747447e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.04415025311755e-05</v>
+        <v>0.0008231072570197284</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0001013749861158431</v>
+        <v>0.003865264356136322</v>
       </c>
       <c r="BW9" t="n">
-        <v>8.121942300931551e-06</v>
+        <v>0.0007533651078119874</v>
       </c>
       <c r="BX9" t="n">
-        <v>5.100827547721565e-05</v>
+        <v>0.0007232988718897104</v>
       </c>
       <c r="BY9" t="n">
-        <v>9.515050624031574e-05</v>
+        <v>0.0004300018772482872</v>
       </c>
       <c r="BZ9" t="n">
-        <v>2.203178519266658e-05</v>
+        <v>0.002104033250361681</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0001037340989569202</v>
+        <v>0.0006962536135688424</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0001348014775430784</v>
+        <v>0.00106892257463187</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0002281999768456444</v>
+        <v>0.0002814191102515906</v>
       </c>
       <c r="CD9" t="n">
-        <v>7.912851287983358e-06</v>
+        <v>0.0003539711469784379</v>
       </c>
       <c r="CE9" t="n">
-        <v>8.578512642998248e-05</v>
+        <v>0.002522308612242341</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.05889082280919e-05</v>
+        <v>0.0005322507931850851</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.305191371007822e-05</v>
+        <v>0.001402822439558804</v>
       </c>
       <c r="CH9" t="n">
-        <v>3.179684426868334e-05</v>
+        <v>0.000114421512989793</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.687474807316903e-05</v>
+        <v>0.0006202594377100468</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.770020207914058e-05</v>
+        <v>0.0006070273229852319</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.462416341586504e-05</v>
+        <v>0.0001537789794383571</v>
       </c>
       <c r="CL9" t="n">
-        <v>4.941471343045123e-05</v>
+        <v>0.0002228752564406022</v>
       </c>
       <c r="CM9" t="n">
-        <v>5.946175951976329e-05</v>
+        <v>0.002457454800605774</v>
       </c>
       <c r="CN9" t="n">
-        <v>7.013316644588485e-05</v>
+        <v>0.001865508500486612</v>
       </c>
       <c r="CO9" t="n">
-        <v>8.677702862769365e-05</v>
+        <v>0.001471159979701042</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.737704901141115e-05</v>
+        <v>0.001452766009606421</v>
       </c>
       <c r="CQ9" t="n">
-        <v>9.466831397730857e-05</v>
+        <v>0.002487466670572758</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.366803841548972e-05</v>
+        <v>0.00138855492696166</v>
       </c>
       <c r="CS9" t="n">
-        <v>3.47461027558893e-05</v>
+        <v>0.0002779362839646637</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.528756810235791e-05</v>
+        <v>0.000783502880949527</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0001387359079672024</v>
+        <v>5.522037099581212e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.55910776508972e-06</v>
+        <v>0.0002803399693220854</v>
       </c>
       <c r="CW9" t="n">
-        <v>5.857360883965157e-05</v>
+        <v>0.001871843356639147</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.467488345952006e-05</v>
+        <v>0.0005049720639362931</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.259928780607879e-05</v>
+        <v>0.00192898279055953</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.368364534457214e-05</v>
+        <v>3.219558129785582e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.951088314759545e-05</v>
+        <v>0.0007285359897650778</v>
       </c>
       <c r="DB9" t="n">
-        <v>4.637700840248726e-06</v>
+        <v>0.0007611667970195413</v>
       </c>
       <c r="DC9" t="n">
-        <v>3.344262222526595e-05</v>
+        <v>0.0002965840685646981</v>
       </c>
       <c r="DD9" t="n">
-        <v>8.239738963311538e-05</v>
+        <v>8.675781282363459e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>8.882558904588223e-05</v>
+        <v>0.00134501582942903</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001557706273160875</v>
+        <v>0.003978358116000891</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0003540597681421787</v>
+        <v>0.0008182985475286841</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.838591510429978e-05</v>
+        <v>0.001440500607714057</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0002101188874803483</v>
+        <v>0.003705029608681798</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0002585063921287656</v>
+        <v>0.0006295006023719907</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0002816187334246933</v>
+        <v>0.003585879458114505</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0001312286331085488</v>
+        <v>0.0001273346424568444</v>
       </c>
       <c r="DM9" t="n">
-        <v>8.386801346205175e-05</v>
+        <v>0.001856522168964148</v>
       </c>
       <c r="DN9" t="n">
-        <v>5.669803431374021e-05</v>
+        <v>0.002006146125495434</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.0001041375871864147</v>
+        <v>0.001811694819480181</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0001875340385595337</v>
+        <v>0.0009511411772109568</v>
       </c>
       <c r="DQ9" t="n">
-        <v>6.592029967578128e-05</v>
+        <v>0.002025438705459237</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0001215776355820708</v>
+        <v>0.0009276551427319646</v>
       </c>
       <c r="DS9" t="n">
-        <v>2.092843533318955e-05</v>
+        <v>0.0009189049014821649</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.333252971060574e-05</v>
+        <v>0.0008741703350096941</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.892053766525351e-06</v>
+        <v>0.0004265800816938281</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.49633807875216e-05</v>
+        <v>0.0006537680164910853</v>
       </c>
       <c r="DW9" t="n">
-        <v>6.118795135989785e-05</v>
+        <v>1.481952494941652e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.686871266632807e-05</v>
+        <v>0.0006000204593874514</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.92447714653099e-05</v>
+        <v>0.00170551217161119</v>
       </c>
       <c r="DZ9" t="n">
-        <v>4.440063639776781e-05</v>
+        <v>0.001000450109131634</v>
       </c>
       <c r="EA9" t="n">
-        <v>6.199384370120242e-05</v>
+        <v>0.00235291849821806</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.389865337841911e-05</v>
+        <v>0.0003673462197184563</v>
       </c>
       <c r="EC9" t="n">
-        <v>5.31308505742345e-05</v>
+        <v>0.0004113535978831351</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.054184940585401e-05</v>
+        <v>0.001136698178015649</v>
       </c>
       <c r="EE9" t="n">
-        <v>3.237229975638911e-05</v>
+        <v>0.0003713367623277009</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.609167520655319e-05</v>
+        <v>0.001192477997392416</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.0002274797152495012</v>
+        <v>0.0001287346676690504</v>
       </c>
       <c r="EH9" t="n">
-        <v>3.617874244810082e-05</v>
+        <v>0.0001565686688991264</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.651915044931229e-05</v>
+        <v>0.001543986960314214</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.565790080348961e-05</v>
+        <v>0.0001441522181266919</v>
       </c>
       <c r="EK9" t="n">
-        <v>6.930332165211439e-05</v>
+        <v>0.0002509309852030128</v>
       </c>
       <c r="EL9" t="n">
-        <v>7.843754428904504e-05</v>
+        <v>0.0009095645509660244</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.124634076812072e-06</v>
+        <v>0.0004225574666634202</v>
       </c>
       <c r="EN9" t="n">
-        <v>9.942254109773785e-05</v>
+        <v>0.0001538264623377472</v>
       </c>
       <c r="EO9" t="n">
-        <v>6.819500413257629e-05</v>
+        <v>0.001717125764116645</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0001102835813071579</v>
+        <v>0.000964172650128603</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.824484444223344e-05</v>
+        <v>0.0001018250841298141</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.586871803738177e-05</v>
+        <v>2.730474807322025e-05</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.000102515346952714</v>
+        <v>0.0008954108343459666</v>
       </c>
       <c r="ET9" t="n">
-        <v>3.842204932880122e-06</v>
+        <v>0.001554521499201655</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.158420466003008e-05</v>
+        <v>0.0006066568312235177</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.76813295588363e-05</v>
+        <v>0.001535080373287201</v>
       </c>
       <c r="EW9" t="n">
-        <v>9.911403321893886e-05</v>
+        <v>0.0003736407670658082</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.345987311651697e-05</v>
+        <v>0.0003043069154955447</v>
       </c>
       <c r="EY9" t="n">
-        <v>5.847705324413255e-05</v>
+        <v>0.001721976092085242</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.254464768862817e-05</v>
+        <v>2.14525807678001e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>5.136029722052626e-05</v>
+        <v>0.001286853337660432</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.581768785603344e-05</v>
+        <v>7.02486140653491e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>6.154725269880146e-05</v>
+        <v>0.0009553692070767283</v>
       </c>
       <c r="FD9" t="n">
-        <v>9.610194865672383e-06</v>
+        <v>0.0006228725542314351</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.519604393251939e-05</v>
+        <v>0.0001590316096553579</v>
       </c>
       <c r="FF9" t="n">
-        <v>9.102927288040519e-05</v>
+        <v>0.0003410219214856625</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.205507942358963e-05</v>
+        <v>0.001688379794359207</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.078278703265823e-05</v>
+        <v>0.001684660324826837</v>
       </c>
       <c r="FI9" t="n">
-        <v>5.119506386108696e-05</v>
+        <v>0.0008277299930341542</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.0001063673116732389</v>
+        <v>0.0001661157875787467</v>
       </c>
       <c r="FK9" t="n">
-        <v>1.826500738388859e-05</v>
+        <v>0.0001230844500241801</v>
       </c>
       <c r="FL9" t="n">
-        <v>7.093464228091761e-05</v>
+        <v>0.0007716475520282984</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.761906216619536e-06</v>
+        <v>0.0005203110631555319</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.973339724121615e-05</v>
+        <v>0.0002673252311069518</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.623616481083445e-05</v>
+        <v>0.0008174936519935727</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.360909977345727e-05</v>
+        <v>0.00203169253654778</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0001137508515967056</v>
+        <v>0.001666554948315024</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.019495306944009e-05</v>
+        <v>0.001909710234031081</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001248168555321172</v>
+        <v>0.0005951063940301538</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.015411155298352e-05</v>
+        <v>0.005558078177273273</v>
       </c>
       <c r="FU9" t="n">
-        <v>3.093959821853787e-05</v>
+        <v>0.001319271279498935</v>
       </c>
       <c r="FV9" t="n">
-        <v>5.934438377153128e-06</v>
+        <v>4.612095654010773e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>8.035458449739963e-06</v>
+        <v>0.0009074081899598241</v>
       </c>
       <c r="FX9" t="n">
-        <v>7.424975774483755e-05</v>
+        <v>0.0002446793369017541</v>
       </c>
       <c r="FY9" t="n">
-        <v>9.221701475325972e-05</v>
+        <v>0.0003716041392181069</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0001908187405206263</v>
+        <v>0.002867121947929263</v>
       </c>
       <c r="GA9" t="n">
-        <v>4.705287210526876e-05</v>
+        <v>0.000230906589422375</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0001372561673633754</v>
+        <v>0.002874873112887144</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.34897964017e-05</v>
+        <v>0.0002643723855726421</v>
       </c>
       <c r="GD9" t="n">
-        <v>8.107411849778146e-05</v>
+        <v>0.001119378954172134</v>
       </c>
       <c r="GE9" t="n">
-        <v>4.009776603197679e-06</v>
+        <v>0.001480467733927071</v>
       </c>
       <c r="GF9" t="n">
-        <v>6.50523288641125e-05</v>
+        <v>0.002402463695034385</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.736050191742834e-05</v>
+        <v>0.000198008943698369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.564797331520822e-06</v>
+        <v>0.001203933730721474</v>
       </c>
       <c r="B10" t="n">
-        <v>2.492696467015776e-06</v>
+        <v>0.02158538810908794</v>
       </c>
       <c r="C10" t="n">
-        <v>1.780093589331955e-05</v>
+        <v>0.001491353963501751</v>
       </c>
       <c r="D10" t="n">
-        <v>5.695409527106676e-06</v>
+        <v>0.01190851908177137</v>
       </c>
       <c r="E10" t="n">
-        <v>1.267898187506944e-05</v>
+        <v>0.00299820932559669</v>
       </c>
       <c r="F10" t="n">
-        <v>1.117626311497588e-07</v>
+        <v>0.003437810111790895</v>
       </c>
       <c r="G10" t="n">
-        <v>1.281485765503021e-06</v>
+        <v>0.001387781812809408</v>
       </c>
       <c r="H10" t="n">
-        <v>3.974887476942968e-06</v>
+        <v>0.00183605367783457</v>
       </c>
       <c r="I10" t="n">
-        <v>1.393237562297145e-05</v>
+        <v>0.001597379916347563</v>
       </c>
       <c r="J10" t="n">
-        <v>1.333257046098879e-06</v>
+        <v>0.002544156275689602</v>
       </c>
       <c r="K10" t="n">
-        <v>2.747317466855748e-06</v>
+        <v>0.01460734102874994</v>
       </c>
       <c r="L10" t="n">
-        <v>1.899185372167267e-05</v>
+        <v>0.001068781013600528</v>
       </c>
       <c r="M10" t="n">
-        <v>3.530887624947354e-06</v>
+        <v>0.0122043788433075</v>
       </c>
       <c r="N10" t="n">
-        <v>7.868559805501718e-06</v>
+        <v>0.006779931951314211</v>
       </c>
       <c r="O10" t="n">
-        <v>4.325859492837481e-07</v>
+        <v>0.005791525822132826</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48274398270587e-06</v>
+        <v>0.001223827362991869</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.201665084721753e-06</v>
+        <v>0.001680506276898086</v>
       </c>
       <c r="R10" t="n">
-        <v>1.496077584306477e-05</v>
+        <v>0.0006056884303689003</v>
       </c>
       <c r="S10" t="n">
-        <v>6.967572403482336e-07</v>
+        <v>0.0009515444980934262</v>
       </c>
       <c r="T10" t="n">
-        <v>6.264960575208534e-06</v>
+        <v>0.003366418648511171</v>
       </c>
       <c r="U10" t="n">
-        <v>5.274014824863116e-07</v>
+        <v>0.0008720289333723485</v>
       </c>
       <c r="V10" t="n">
-        <v>5.696123480447568e-06</v>
+        <v>0.002368927001953125</v>
       </c>
       <c r="W10" t="n">
-        <v>2.516213044145843e-06</v>
+        <v>0.00102769723162055</v>
       </c>
       <c r="X10" t="n">
-        <v>4.853463906329125e-07</v>
+        <v>0.002385926432907581</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.22012488393375e-07</v>
+        <v>0.002124604769051075</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.293156967425602e-06</v>
+        <v>0.0009652136359363794</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.486450966898701e-06</v>
+        <v>0.0004549319564830512</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.231405566519243e-07</v>
+        <v>0.002307864837348461</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.203155867799069e-07</v>
+        <v>0.002928878413513303</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.893519745673984e-07</v>
+        <v>0.0004031474236398935</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.050702616747003e-06</v>
+        <v>0.0004517258494161069</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.143576693924842e-06</v>
+        <v>0.001179007929749787</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.114353264914826e-06</v>
+        <v>0.0005805589607916772</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.834025730815483e-07</v>
+        <v>0.0004692382644861937</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.261542355583515e-06</v>
+        <v>0.0002300175547134131</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.33145021108794e-06</v>
+        <v>0.0008629861404187977</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.790835520107066e-07</v>
+        <v>0.001297313952818513</v>
       </c>
       <c r="AL10" t="n">
-        <v>5.109500762046082e-06</v>
+        <v>0.001955267274752259</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.684624294284731e-06</v>
+        <v>0.0006379747064784169</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.443565563226002e-06</v>
+        <v>0.001025735517032444</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.705833470732614e-07</v>
+        <v>0.002356555080041289</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.498799171415158e-06</v>
+        <v>0.002572578610852361</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4.572109446598915e-07</v>
+        <v>0.001002719858661294</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.091585659196426e-06</v>
+        <v>0.001676749438047409</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.153519969600893e-07</v>
+        <v>0.0007263645529747009</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.311569111654535e-06</v>
+        <v>0.002260633511468768</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.0432572606951e-06</v>
+        <v>0.01733279414474964</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.285534199269023e-05</v>
+        <v>0.0005113115767017007</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.8849924547103e-06</v>
+        <v>0.002092249225825071</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.85993019133457e-06</v>
+        <v>0.00294788065366447</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.338527550222352e-06</v>
+        <v>0.002191234845668077</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.086133690681891e-06</v>
+        <v>0.0005931745981797576</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.25973190026707e-06</v>
+        <v>0.0001246874453499913</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.30654415342724e-06</v>
+        <v>0.000398474105168134</v>
       </c>
       <c r="BC10" t="n">
-        <v>7.443318281730171e-07</v>
+        <v>0.0003704882110469043</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.800824065867346e-06</v>
+        <v>0.00395138980820775</v>
       </c>
       <c r="BE10" t="n">
-        <v>4.244315732648829e-06</v>
+        <v>0.003671363228932023</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.940930698969169e-07</v>
+        <v>0.001805730047635734</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.614019988162909e-06</v>
+        <v>0.005426593124866486</v>
       </c>
       <c r="BH10" t="n">
-        <v>3.217259290977381e-06</v>
+        <v>0.004694314673542976</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.329609060325311e-06</v>
+        <v>0.002561167115345597</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.724173100432381e-06</v>
+        <v>0.001363773015327752</v>
       </c>
       <c r="BK10" t="n">
-        <v>4.24783451080657e-07</v>
+        <v>0.0002761509967967868</v>
       </c>
       <c r="BL10" t="n">
-        <v>3.333399263283354e-07</v>
+        <v>0.004033531062304974</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.144591230215156e-07</v>
+        <v>0.004811964463442564</v>
       </c>
       <c r="BN10" t="n">
-        <v>4.959354100719793e-06</v>
+        <v>0.001704986090771854</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.127362224906392e-06</v>
+        <v>0.0004665589367505163</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.77389540567674e-06</v>
+        <v>0.004034982994198799</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3.647502921921841e-08</v>
+        <v>0.001952280756086111</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.190423401771113e-06</v>
+        <v>0.0001698031555861235</v>
       </c>
       <c r="BS10" t="n">
-        <v>5.244856311037438e-06</v>
+        <v>0.0008299612672999501</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.607471060400712e-06</v>
+        <v>0.001269449596293271</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.105955900333356e-06</v>
+        <v>0.002139580436050892</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.026780637403135e-06</v>
+        <v>0.008504386991262436</v>
       </c>
       <c r="BW10" t="n">
-        <v>4.387505214253906e-06</v>
+        <v>0.001036231638863683</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.391764610365499e-06</v>
+        <v>0.001600797520950437</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.504127446125494e-06</v>
+        <v>0.0009291812893934548</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.442354687242187e-06</v>
+        <v>0.005238592159003019</v>
       </c>
       <c r="CA10" t="n">
-        <v>4.1959290797422e-07</v>
+        <v>0.0004800666938535869</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.099987561152375e-07</v>
+        <v>0.00115744152572006</v>
       </c>
       <c r="CC10" t="n">
-        <v>5.898649305891013e-06</v>
+        <v>0.0007475708844140172</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.036923890751495e-06</v>
+        <v>0.001478233840316534</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.334769305889495e-06</v>
+        <v>0.00349888694472611</v>
       </c>
       <c r="CF10" t="n">
-        <v>3.199441835022299e-06</v>
+        <v>0.0009175974410027266</v>
       </c>
       <c r="CG10" t="n">
-        <v>3.008043734098464e-07</v>
+        <v>0.001140986918471754</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.085645519400714e-06</v>
+        <v>0.0007111365557648242</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.451477714908833e-06</v>
+        <v>0.001178708742372692</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.679883266409888e-07</v>
+        <v>0.0008256225846707821</v>
       </c>
       <c r="CK10" t="n">
-        <v>6.385450319612573e-07</v>
+        <v>8.798454655334353e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.999721234824392e-06</v>
+        <v>0.000370174995623529</v>
       </c>
       <c r="CM10" t="n">
-        <v>9.310362543146766e-07</v>
+        <v>0.003130749333649874</v>
       </c>
       <c r="CN10" t="n">
-        <v>5.86448277317686e-06</v>
+        <v>0.003052118234336376</v>
       </c>
       <c r="CO10" t="n">
-        <v>4.212598696540226e-07</v>
+        <v>0.001148933661170304</v>
       </c>
       <c r="CP10" t="n">
-        <v>9.549519290885655e-07</v>
+        <v>0.004966748412698507</v>
       </c>
       <c r="CQ10" t="n">
-        <v>7.294067927432479e-07</v>
+        <v>0.003592128865420818</v>
       </c>
       <c r="CR10" t="n">
-        <v>5.768928303950815e-07</v>
+        <v>0.002879376988857985</v>
       </c>
       <c r="CS10" t="n">
-        <v>9.735641697261599e-07</v>
+        <v>0.001588659011758864</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.641138055674674e-06</v>
+        <v>0.004405460320413113</v>
       </c>
       <c r="CU10" t="n">
-        <v>5.292084551911103e-06</v>
+        <v>0.0002687226806301624</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.162204739557637e-06</v>
+        <v>0.001355756423436105</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.830247924772266e-06</v>
+        <v>0.002672743052244186</v>
       </c>
       <c r="CX10" t="n">
-        <v>2.31817398343992e-06</v>
+        <v>0.001233238261193037</v>
       </c>
       <c r="CY10" t="n">
-        <v>5.464551122713601e-07</v>
+        <v>0.002058858284726739</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.539114914019592e-06</v>
+        <v>0.0005824408144690096</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.279617549698742e-06</v>
+        <v>0.001169164548628032</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.241868000714021e-07</v>
+        <v>0.0006928436923772097</v>
       </c>
       <c r="DC10" t="n">
-        <v>7.530257448706834e-07</v>
+        <v>0.0001946154079632834</v>
       </c>
       <c r="DD10" t="n">
-        <v>2.446571670589037e-06</v>
+        <v>0.0001341112074442208</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.433831125221332e-06</v>
+        <v>0.001125967944972217</v>
       </c>
       <c r="DF10" t="n">
-        <v>4.726818133349298e-06</v>
+        <v>0.002935915254056454</v>
       </c>
       <c r="DG10" t="n">
-        <v>7.76006345404312e-06</v>
+        <v>0.00118559633847326</v>
       </c>
       <c r="DH10" t="n">
-        <v>4.534222625807161e-06</v>
+        <v>0.0034817298874259</v>
       </c>
       <c r="DI10" t="n">
-        <v>2.882310354834772e-06</v>
+        <v>0.0006843950832262635</v>
       </c>
       <c r="DJ10" t="n">
-        <v>2.184643790315022e-06</v>
+        <v>0.001018845243379474</v>
       </c>
       <c r="DK10" t="n">
-        <v>5.881466677237768e-06</v>
+        <v>0.001451353658922017</v>
       </c>
       <c r="DL10" t="n">
-        <v>2.45192359216162e-06</v>
+        <v>3.726697468664497e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>3.557911895768484e-06</v>
+        <v>0.001062420546077192</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.835271973504859e-06</v>
+        <v>0.002818512264639139</v>
       </c>
       <c r="DO10" t="n">
-        <v>1.925281139847357e-06</v>
+        <v>0.001122866058722138</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.129593442783516e-06</v>
+        <v>0.001779495854862034</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.141008963008062e-06</v>
+        <v>0.000625324435532093</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.160393139798543e-06</v>
+        <v>0.001132724806666374</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.438470346532995e-06</v>
+        <v>0.002199138980358839</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.227267375725205e-06</v>
+        <v>0.0008382681990042329</v>
       </c>
       <c r="DU10" t="n">
-        <v>9.838468031375669e-07</v>
+        <v>0.0003463001048658043</v>
       </c>
       <c r="DV10" t="n">
-        <v>2.576943188614678e-06</v>
+        <v>0.0003678264329209924</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.479938411350304e-07</v>
+        <v>0.0007144702249206603</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.04896457742143e-06</v>
+        <v>0.0001266423787456006</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.150679392798338e-06</v>
+        <v>0.001618771464563906</v>
       </c>
       <c r="DZ10" t="n">
-        <v>5.200978989705618e-07</v>
+        <v>0.001303261611610651</v>
       </c>
       <c r="EA10" t="n">
-        <v>2.846230017894413e-06</v>
+        <v>0.002822150243446231</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.238074839373439e-07</v>
+        <v>0.002055444288998842</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.154995970864547e-06</v>
+        <v>0.0005441689863801003</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.202077666879632e-06</v>
+        <v>0.000726501049939543</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.807566718525777e-07</v>
+        <v>4.051790165249258e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.37254119181307e-06</v>
+        <v>0.001062408788129687</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.8378099159454e-06</v>
+        <v>0.001831132220104337</v>
       </c>
       <c r="EH10" t="n">
-        <v>2.307062459294684e-06</v>
+        <v>9.738221706356853e-06</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.587703309269273e-06</v>
+        <v>0.001859853626228869</v>
       </c>
       <c r="EJ10" t="n">
-        <v>9.936056812875904e-07</v>
+        <v>0.001041740062646568</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.966004785776022e-06</v>
+        <v>0.001062257448211312</v>
       </c>
       <c r="EL10" t="n">
-        <v>6.107912327024678e-07</v>
+        <v>0.000751904328353703</v>
       </c>
       <c r="EM10" t="n">
-        <v>2.016168082263903e-06</v>
+        <v>0.0005706134834326804</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.431329678780457e-06</v>
+        <v>0.0001630708575248718</v>
       </c>
       <c r="EO10" t="n">
-        <v>2.678101736819372e-06</v>
+        <v>0.001349023194052279</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.062672254192876e-06</v>
+        <v>0.002162215765565634</v>
       </c>
       <c r="EQ10" t="n">
-        <v>6.416107680706773e-07</v>
+        <v>6.813908112235367e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>2.608646354929078e-06</v>
+        <v>0.001811959082260728</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.778489149728557e-06</v>
+        <v>0.0007467598188668489</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.181401785288472e-07</v>
+        <v>0.005578749813139439</v>
       </c>
       <c r="EU10" t="n">
-        <v>3.216736786271213e-06</v>
+        <v>0.001547901309095323</v>
       </c>
       <c r="EV10" t="n">
-        <v>3.379751376542117e-07</v>
+        <v>0.00131277262698859</v>
       </c>
       <c r="EW10" t="n">
-        <v>4.102317689103074e-06</v>
+        <v>0.0001329598453594372</v>
       </c>
       <c r="EX10" t="n">
-        <v>4.553171777388343e-07</v>
+        <v>0.0008998973062261939</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.076765440506279e-06</v>
+        <v>0.002738298382610083</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.775598659354728e-06</v>
+        <v>0.000479834561701864</v>
       </c>
       <c r="FA10" t="n">
-        <v>2.223701613957019e-07</v>
+        <v>0.001564406557008624</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.779040303517831e-06</v>
+        <v>6.702854443574324e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.953802878546412e-07</v>
+        <v>0.001572338631376624</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.301151826282876e-07</v>
+        <v>0.0009199137566611171</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.071513906936161e-06</v>
+        <v>0.0001757914287736639</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.219959125999594e-06</v>
+        <v>0.0003060469753108919</v>
       </c>
       <c r="FG10" t="n">
-        <v>5.490476269187639e-07</v>
+        <v>0.0006272941245697439</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.304963006987236e-06</v>
+        <v>0.001117876381613314</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.592397779859311e-06</v>
+        <v>0.0001906368706841022</v>
       </c>
       <c r="FJ10" t="n">
-        <v>5.045592388341902e-08</v>
+        <v>0.001976384548470378</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.643283667362994e-06</v>
+        <v>0.001287343329750001</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.312481001354172e-06</v>
+        <v>0.001034371205605567</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.166865099046845e-07</v>
+        <v>0.000946330779697746</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.611528659850592e-06</v>
+        <v>0.0002694278955459595</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.858668949556886e-06</v>
+        <v>0.0007626731530763209</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.595708340573765e-06</v>
+        <v>0.0002150023356080055</v>
       </c>
       <c r="FQ10" t="n">
-        <v>4.040864951093681e-06</v>
+        <v>0.0001888435072032735</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.13366093046352e-06</v>
+        <v>0.0004478039045352489</v>
       </c>
       <c r="FS10" t="n">
-        <v>1.553312358737458e-06</v>
+        <v>0.003169470466673374</v>
       </c>
       <c r="FT10" t="n">
-        <v>2.884876039388473e-06</v>
+        <v>0.0009388945763930678</v>
       </c>
       <c r="FU10" t="n">
-        <v>4.292922994864057e-07</v>
+        <v>0.0001782123290468007</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.233065631822683e-06</v>
+        <v>0.0007152807665988803</v>
       </c>
       <c r="FW10" t="n">
-        <v>2.520656892102124e-07</v>
+        <v>0.0002514588704798371</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.071046881406801e-06</v>
+        <v>0.0009511965909041464</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.140203266913886e-06</v>
+        <v>0.002310254611074924</v>
       </c>
       <c r="FZ10" t="n">
-        <v>3.619825292844325e-06</v>
+        <v>0.001745179179124534</v>
       </c>
       <c r="GA10" t="n">
-        <v>3.630692901879229e-07</v>
+        <v>0.0004645686713047326</v>
       </c>
       <c r="GB10" t="n">
-        <v>3.271694367867894e-06</v>
+        <v>0.0008321316563524306</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.746166844895924e-06</v>
+        <v>0.0004122895770706236</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.82361019749078e-06</v>
+        <v>0.002830590819939971</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.255206484529481e-06</v>
+        <v>0.004190347157418728</v>
       </c>
       <c r="GF10" t="n">
-        <v>3.603879349611816e-06</v>
+        <v>0.0005985914613120258</v>
       </c>
       <c r="GG10" t="n">
-        <v>4.77901380691037e-07</v>
+        <v>0.0009157205931842327</v>
       </c>
     </row>
     <row r="11">
@@ -6694,1709 +6694,1709 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.938761121233483e-09</v>
+        <v>5.886474419014576e-09</v>
       </c>
       <c r="B12" t="n">
-        <v>7.20601667225651e-09</v>
+        <v>2.427407963523365e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>6.179398326366936e-08</v>
+        <v>2.688503641934403e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>6.979759881176051e-09</v>
+        <v>4.996211799834782e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>4.022413691018301e-08</v>
+        <v>4.91219775966556e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>2.430258305707866e-08</v>
+        <v>1.511202829540537e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>8.045683230761824e-09</v>
+        <v>3.957831395950961e-09</v>
       </c>
       <c r="H12" t="n">
-        <v>3.454689867510297e-10</v>
+        <v>1.237271840537346e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>3.276928595141726e-08</v>
+        <v>2.369998641782445e-10</v>
       </c>
       <c r="J12" t="n">
-        <v>5.224614962884289e-09</v>
+        <v>1.174884367571849e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>6.81819356529445e-09</v>
+        <v>1.412451666737979e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>6.195995183588821e-08</v>
+        <v>9.922688226637888e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.389118509109721e-08</v>
+        <v>2.784212327355817e-08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.492231665485178e-08</v>
+        <v>1.107849278980666e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.109072123028909e-08</v>
+        <v>1.135213967273785e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>1.274253591532215e-08</v>
+        <v>8.881625213064126e-09</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.475729427546923e-09</v>
+        <v>1.222046996929294e-08</v>
       </c>
       <c r="R12" t="n">
-        <v>4.021617883154249e-08</v>
+        <v>2.165490009531368e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>4.159419475513459e-09</v>
+        <v>2.800442988615259e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>9.998386119036695e-09</v>
+        <v>3.920195279505378e-09</v>
       </c>
       <c r="U12" t="n">
-        <v>9.196964967372878e-09</v>
+        <v>4.912016571267941e-09</v>
       </c>
       <c r="V12" t="n">
-        <v>1.475998079314422e-08</v>
+        <v>3.886782895534679e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36713955711798e-08</v>
+        <v>5.517306167490688e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>1.290803020026488e-09</v>
+        <v>1.952123129811412e-09</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.185937481551491e-08</v>
+        <v>1.557145523634063e-08</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.905740341205501e-09</v>
+        <v>2.613748772972713e-09</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.615747309510425e-09</v>
+        <v>6.696204923883897e-09</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.128193952292804e-09</v>
+        <v>1.625518386560998e-09</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.544436756262257e-08</v>
+        <v>1.489078749195016e-09</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.509452780775973e-09</v>
+        <v>2.287201539274974e-10</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.857672098954822e-09</v>
+        <v>5.459625640469312e-09</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.0487976709328e-08</v>
+        <v>7.877260621569349e-09</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.527491797607809e-09</v>
+        <v>5.537534430999358e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.428376859129003e-09</v>
+        <v>3.561739347901494e-09</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.052971304067341e-08</v>
+        <v>2.454398462248264e-09</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.105980373949933e-08</v>
+        <v>9.593531524743071e-10</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.193059150419231e-09</v>
+        <v>3.692811612054925e-09</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.42744335743339e-09</v>
+        <v>4.532177300120566e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.212880153735114e-09</v>
+        <v>2.057950032607891e-09</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.363419042225814e-09</v>
+        <v>2.28312746486381e-09</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.245844286212332e-09</v>
+        <v>2.205787330566977e-09</v>
       </c>
       <c r="AP12" t="n">
-        <v>8.215965685565152e-09</v>
+        <v>3.105218526755493e-09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.315157870442675e-10</v>
+        <v>5.400651925668853e-09</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.851277908748727e-09</v>
+        <v>2.618216754513014e-09</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.450676550580511e-09</v>
+        <v>4.695072330918038e-09</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.872922923648275e-09</v>
+        <v>1.027842255751921e-09</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.310085456258548e-10</v>
+        <v>1.379811376267526e-08</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.709929880495565e-08</v>
+        <v>1.736530919060897e-09</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.432854806500018e-09</v>
+        <v>2.242380681138911e-08</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.077201883248335e-09</v>
+        <v>1.655917181153654e-09</v>
       </c>
       <c r="AY12" t="n">
-        <v>8.80380568446526e-09</v>
+        <v>4.425235733407362e-09</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.754842659020596e-09</v>
+        <v>2.344510363627705e-09</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.036043499411335e-09</v>
+        <v>3.706513540535639e-09</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.746873839498676e-09</v>
+        <v>1.055068299393724e-08</v>
       </c>
       <c r="BC12" t="n">
-        <v>6.086223525159085e-09</v>
+        <v>3.280845373154762e-09</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.283736115302418e-09</v>
+        <v>6.182390155373696e-10</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.914462899321734e-08</v>
+        <v>4.301277556351124e-09</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.086291997637773e-09</v>
+        <v>4.65851668352002e-09</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.522202535715223e-08</v>
+        <v>8.384562377727889e-09</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.095500490322365e-08</v>
+        <v>5.482507781096047e-09</v>
       </c>
       <c r="BI12" t="n">
-        <v>7.071725427465481e-09</v>
+        <v>8.719981181570802e-09</v>
       </c>
       <c r="BJ12" t="n">
-        <v>5.005927672385724e-09</v>
+        <v>1.756530565444336e-08</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.515382308525659e-08</v>
+        <v>2.685849320727129e-10</v>
       </c>
       <c r="BL12" t="n">
-        <v>6.773147376293309e-09</v>
+        <v>1.447533204412821e-09</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.833123652872359e-09</v>
+        <v>3.842418605515263e-10</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.099927698395732e-08</v>
+        <v>5.208760534003432e-09</v>
       </c>
       <c r="BO12" t="n">
-        <v>4.10601730393978e-09</v>
+        <v>4.877812376236079e-09</v>
       </c>
       <c r="BP12" t="n">
-        <v>9.111342791356947e-09</v>
+        <v>4.282506793629182e-09</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.665258236334012e-09</v>
+        <v>3.612972143685056e-09</v>
       </c>
       <c r="BR12" t="n">
-        <v>8.47765058153982e-09</v>
+        <v>3.19845039342681e-09</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.809581983205135e-09</v>
+        <v>1.682150863047127e-09</v>
       </c>
       <c r="BT12" t="n">
-        <v>3.791639224814958e-11</v>
+        <v>5.216868048663059e-10</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.368017472866086e-10</v>
+        <v>1.921141468130827e-09</v>
       </c>
       <c r="BV12" t="n">
-        <v>6.770680904821802e-09</v>
+        <v>7.853217631748066e-09</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.211038558324162e-08</v>
+        <v>3.310230090036725e-09</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.96652821699206e-10</v>
+        <v>9.577272308547435e-09</v>
       </c>
       <c r="BY12" t="n">
-        <v>9.368658737685109e-09</v>
+        <v>6.406132069258774e-09</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.529445015080455e-08</v>
+        <v>2.943736365779159e-09</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.192689502715893e-09</v>
+        <v>6.704082622377427e-09</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.054833109748188e-09</v>
+        <v>4.431750522115863e-09</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.40379732680185e-09</v>
+        <v>7.548547564795172e-09</v>
       </c>
       <c r="CD12" t="n">
-        <v>7.066034424241252e-09</v>
+        <v>5.393162583189337e-10</v>
       </c>
       <c r="CE12" t="n">
-        <v>6.344736735997003e-09</v>
+        <v>4.287087129739575e-09</v>
       </c>
       <c r="CF12" t="n">
-        <v>9.623946084502677e-09</v>
+        <v>5.56711787780273e-09</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.776362390515374e-09</v>
+        <v>5.015961868082286e-09</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.003844118940833e-08</v>
+        <v>2.104108887124312e-09</v>
       </c>
       <c r="CI12" t="n">
-        <v>7.944263913373106e-09</v>
+        <v>3.484689758970205e-10</v>
       </c>
       <c r="CJ12" t="n">
-        <v>5.135358804864154e-09</v>
+        <v>3.51470164083878e-09</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.07886574621341e-09</v>
+        <v>2.264127552109585e-09</v>
       </c>
       <c r="CL12" t="n">
-        <v>3.978481988298199e-09</v>
+        <v>5.180139428517805e-09</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.34212871927275e-08</v>
+        <v>6.469228708283481e-09</v>
       </c>
       <c r="CN12" t="n">
-        <v>2.029251433555146e-08</v>
+        <v>5.899502664163947e-09</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.842248880696729e-09</v>
+        <v>2.683777089451667e-10</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.581582586065224e-09</v>
+        <v>1.038662666985601e-08</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.356981638167554e-08</v>
+        <v>4.830112754206084e-09</v>
       </c>
       <c r="CR12" t="n">
-        <v>7.23160820115254e-09</v>
+        <v>3.519101232640764e-09</v>
       </c>
       <c r="CS12" t="n">
-        <v>6.162260479669612e-09</v>
+        <v>5.945621772696086e-09</v>
       </c>
       <c r="CT12" t="n">
-        <v>5.109996870089617e-09</v>
+        <v>1.555490314331109e-08</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.145828676385463e-08</v>
+        <v>3.875417764476197e-09</v>
       </c>
       <c r="CV12" t="n">
-        <v>8.180683686020984e-09</v>
+        <v>8.714244326135656e-10</v>
       </c>
       <c r="CW12" t="n">
-        <v>7.34551752756829e-09</v>
+        <v>4.197554748230914e-09</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.060254817275563e-08</v>
+        <v>4.707919831759e-09</v>
       </c>
       <c r="CY12" t="n">
-        <v>6.992653123205628e-10</v>
+        <v>8.631222847554909e-09</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.17714948899561e-08</v>
+        <v>3.091716882508422e-09</v>
       </c>
       <c r="DA12" t="n">
-        <v>8.253746131003936e-09</v>
+        <v>7.64040664069654e-10</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.482670374310715e-09</v>
+        <v>3.019586136687735e-09</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.068888810269343e-11</v>
+        <v>3.032645912171006e-09</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.602755758284729e-09</v>
+        <v>3.904747192251534e-09</v>
       </c>
       <c r="DE12" t="n">
-        <v>6.36142072352186e-09</v>
+        <v>5.273978143094382e-09</v>
       </c>
       <c r="DF12" t="n">
-        <v>3.397113346181868e-08</v>
+        <v>5.938478153666438e-09</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.771801017014241e-08</v>
+        <v>7.982484007129642e-09</v>
       </c>
       <c r="DH12" t="n">
-        <v>4.752366500326843e-09</v>
+        <v>3.406102777603337e-08</v>
       </c>
       <c r="DI12" t="n">
-        <v>5.638904898574992e-09</v>
+        <v>1.253278192336893e-08</v>
       </c>
       <c r="DJ12" t="n">
-        <v>9.782841203787029e-11</v>
+        <v>1.245844760688897e-09</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.949171490878143e-09</v>
+        <v>8.05398858716444e-09</v>
       </c>
       <c r="DL12" t="n">
-        <v>8.191824996117703e-09</v>
+        <v>1.823220507901624e-08</v>
       </c>
       <c r="DM12" t="n">
-        <v>6.09521100258803e-09</v>
+        <v>2.212253491506999e-09</v>
       </c>
       <c r="DN12" t="n">
-        <v>4.177528101223515e-09</v>
+        <v>4.090432437209301e-10</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.433863999229402e-09</v>
+        <v>2.514513708362642e-09</v>
       </c>
       <c r="DP12" t="n">
-        <v>4.485919691266105e-10</v>
+        <v>7.74462538544185e-09</v>
       </c>
       <c r="DQ12" t="n">
-        <v>6.822929776717501e-09</v>
+        <v>4.209546489164495e-09</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.526119453032493e-09</v>
+        <v>5.580039541541737e-09</v>
       </c>
       <c r="DS12" t="n">
-        <v>3.00157854127292e-09</v>
+        <v>5.200005759320447e-09</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.131639474991289e-09</v>
+        <v>1.05786113202555e-09</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.268626093064995e-08</v>
+        <v>9.119686117387005e-10</v>
       </c>
       <c r="DV12" t="n">
-        <v>2.597557724470789e-10</v>
+        <v>8.615774760301065e-09</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.291888152010756e-09</v>
+        <v>1.008301886429308e-09</v>
       </c>
       <c r="DX12" t="n">
-        <v>8.067934764710571e-09</v>
+        <v>4.754535876116961e-09</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.553163014340498e-09</v>
+        <v>7.445670746619726e-09</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.595231280404619e-09</v>
+        <v>3.216976462994126e-09</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.083317702210707e-08</v>
+        <v>8.506043869260793e-09</v>
       </c>
       <c r="EB12" t="n">
-        <v>2.884122940471912e-10</v>
+        <v>7.86689113851935e-09</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.176676200920213e-09</v>
+        <v>1.730080662065703e-10</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.198851240502563e-09</v>
+        <v>4.462840763608256e-09</v>
       </c>
       <c r="EE12" t="n">
-        <v>5.74262082331245e-10</v>
+        <v>1.056260745535553e-09</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.076114841680464e-08</v>
+        <v>7.281611980047842e-10</v>
       </c>
       <c r="EG12" t="n">
-        <v>4.636446782058101e-10</v>
+        <v>2.026978807023738e-09</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.372380253883421e-08</v>
+        <v>4.106351259025587e-09</v>
       </c>
       <c r="EI12" t="n">
-        <v>2.841385793317386e-09</v>
+        <v>6.340271863081171e-09</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.088707080043605e-08</v>
+        <v>4.084910187884816e-09</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.887196354743992e-08</v>
+        <v>1.693908457944815e-09</v>
       </c>
       <c r="EL12" t="n">
-        <v>2.013236022335718e-09</v>
+        <v>4.917791063263621e-09</v>
       </c>
       <c r="EM12" t="n">
-        <v>2.349091143827309e-09</v>
+        <v>1.256904358371003e-09</v>
       </c>
       <c r="EN12" t="n">
-        <v>9.148570789818677e-10</v>
+        <v>2.769130924562546e-09</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.929030490899208e-09</v>
+        <v>8.67330152143353e-10</v>
       </c>
       <c r="EP12" t="n">
-        <v>5.939059466442131e-09</v>
+        <v>1.148833250752546e-09</v>
       </c>
       <c r="EQ12" t="n">
-        <v>9.673867040760342e-09</v>
+        <v>4.241123008341674e-09</v>
       </c>
       <c r="ER12" t="n">
-        <v>8.925078454069535e-09</v>
+        <v>3.338386678208849e-09</v>
       </c>
       <c r="ES12" t="n">
-        <v>4.915862827914452e-09</v>
+        <v>1.47024019625519e-08</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.352399969789531e-09</v>
+        <v>2.61873278617486e-09</v>
       </c>
       <c r="EU12" t="n">
-        <v>3.835579853728177e-09</v>
+        <v>3.176647833669222e-09</v>
       </c>
       <c r="EV12" t="n">
-        <v>2.597463577558301e-09</v>
+        <v>8.563386444393473e-09</v>
       </c>
       <c r="EW12" t="n">
-        <v>2.689213518536349e-09</v>
+        <v>2.865974124688364e-10</v>
       </c>
       <c r="EX12" t="n">
-        <v>9.293666280996149e-09</v>
+        <v>7.214233654906366e-10</v>
       </c>
       <c r="EY12" t="n">
-        <v>7.27203453010361e-09</v>
+        <v>3.930984870947896e-09</v>
       </c>
       <c r="EZ12" t="n">
-        <v>9.846900184129481e-09</v>
+        <v>4.899809002978373e-09</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.448587637677747e-09</v>
+        <v>7.77445219313222e-09</v>
       </c>
       <c r="FB12" t="n">
-        <v>7.556606007597111e-09</v>
+        <v>1.78192660627019e-09</v>
       </c>
       <c r="FC12" t="n">
-        <v>6.958474241258727e-09</v>
+        <v>4.438564793485256e-10</v>
       </c>
       <c r="FD12" t="n">
-        <v>5.547336812128378e-09</v>
+        <v>3.846415186359309e-09</v>
       </c>
       <c r="FE12" t="n">
-        <v>2.88304757845026e-09</v>
+        <v>3.00773939088117e-09</v>
       </c>
       <c r="FF12" t="n">
-        <v>7.064349105689871e-09</v>
+        <v>5.666183078290032e-09</v>
       </c>
       <c r="FG12" t="n">
-        <v>7.742831265034056e-09</v>
+        <v>1.359626855546026e-09</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.554767591396057e-09</v>
+        <v>3.608923826448063e-09</v>
       </c>
       <c r="FI12" t="n">
-        <v>3.656458691381204e-09</v>
+        <v>9.106507548040099e-09</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.014976658275657e-09</v>
+        <v>1.385685610699738e-08</v>
       </c>
       <c r="FK12" t="n">
-        <v>2.951225042124861e-09</v>
+        <v>3.955475502692707e-09</v>
       </c>
       <c r="FL12" t="n">
-        <v>1.208310229650067e-09</v>
+        <v>1.541412775196704e-09</v>
       </c>
       <c r="FM12" t="n">
-        <v>5.440443651139049e-09</v>
+        <v>6.4223457663104e-09</v>
       </c>
       <c r="FN12" t="n">
-        <v>4.989706980929043e-10</v>
+        <v>3.522737879180227e-09</v>
       </c>
       <c r="FO12" t="n">
-        <v>4.642805695453944e-09</v>
+        <v>2.174717961267447e-09</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.490161105621723e-09</v>
+        <v>5.048709894595049e-09</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.905308621985569e-08</v>
+        <v>2.091506079437977e-09</v>
       </c>
       <c r="FR12" t="n">
-        <v>4.096027517164202e-09</v>
+        <v>3.271014348271706e-09</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.139752819374507e-09</v>
+        <v>1.163404372839238e-09</v>
       </c>
       <c r="FT12" t="n">
-        <v>8.072216672871946e-09</v>
+        <v>9.541462731021966e-09</v>
       </c>
       <c r="FU12" t="n">
-        <v>1.032792695809803e-08</v>
+        <v>1.869946419930102e-09</v>
       </c>
       <c r="FV12" t="n">
-        <v>3.606658749433223e-09</v>
+        <v>2.465967430254068e-09</v>
       </c>
       <c r="FW12" t="n">
-        <v>4.553589949551906e-09</v>
+        <v>4.91776619426787e-09</v>
       </c>
       <c r="FX12" t="n">
-        <v>9.173954040875287e-09</v>
+        <v>2.729881876106788e-09</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.06080111361706e-09</v>
+        <v>9.656273114444502e-09</v>
       </c>
       <c r="FZ12" t="n">
-        <v>8.021862285545467e-09</v>
+        <v>2.773683061008114e-09</v>
       </c>
       <c r="GA12" t="n">
-        <v>2.372636309644349e-09</v>
+        <v>1.847800801257904e-09</v>
       </c>
       <c r="GB12" t="n">
-        <v>3.505938650505414e-09</v>
+        <v>2.018410771853496e-09</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.412844394925287e-09</v>
+        <v>7.727322781647672e-09</v>
       </c>
       <c r="GD12" t="n">
-        <v>8.667535134065929e-09</v>
+        <v>4.690748900415542e-10</v>
       </c>
       <c r="GE12" t="n">
-        <v>2.543017796341474e-09</v>
+        <v>2.064176918281646e-08</v>
       </c>
       <c r="GF12" t="n">
-        <v>3.377828905470892e-09</v>
+        <v>7.358758602471482e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>4.213188464774476e-09</v>
+        <v>6.308773503604925e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001725574489682913</v>
+        <v>0.002339448314160109</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001513437833636999</v>
+        <v>0.01324947830289602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002058579120784998</v>
+        <v>0.0004713630769401789</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003394851926714182</v>
+        <v>0.007409997750073671</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0035679223947227</v>
+        <v>0.001218255376443267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0007443372742272913</v>
+        <v>0.01147095300257206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001516034390078858</v>
+        <v>0.0002621877938508987</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009822977008298039</v>
+        <v>0.002235277788713574</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004447818268090487</v>
+        <v>0.0001213700306834653</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00117097666952759</v>
+        <v>0.003159842686727643</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001743532251566648</v>
+        <v>0.01005280949175358</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002791502512991428</v>
+        <v>0.0004951914306730032</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003321033902466297</v>
+        <v>0.008105975575745106</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004006910137832165</v>
+        <v>0.002842256333678961</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002097304910421371</v>
+        <v>0.01284898724406958</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001901977229863405</v>
+        <v>0.001394359394907951</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0009567817905917764</v>
+        <v>2.860452514141798e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>0.004422894679009914</v>
+        <v>9.304983541369438e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0006494921981357038</v>
+        <v>0.0006098994635976851</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0003003478050231934</v>
+        <v>0.002202355302870274</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002357325283810496</v>
+        <v>0.0003166247333865613</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001621721545234323</v>
+        <v>0.002024220768362284</v>
       </c>
       <c r="W13" t="n">
-        <v>0.002709100022912025</v>
+        <v>0.0009941569296643138</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001269615837372839</v>
+        <v>0.0002068176254397258</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0009340764954686165</v>
+        <v>0.001429760130122304</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.928371734218672e-05</v>
+        <v>0.0001526607666164637</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0007541486411355436</v>
+        <v>0.001817517215386033</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0003062571631744504</v>
+        <v>0.0003598852781578898</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.000367410306353122</v>
+        <v>0.00186152895912528</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0003503439947962761</v>
+        <v>0.0002154166140826419</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.000221834285184741</v>
+        <v>0.001295393332839012</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0009152147104032338</v>
+        <v>0.0009113157284446061</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0009171678684651852</v>
+        <v>0.0002117042895406485</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.000281957647530362</v>
+        <v>0.002515713684260845</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001296453643590212</v>
+        <v>0.0002415923518128693</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001564344856888056</v>
+        <v>0.0001113082398660481</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.000846996670588851</v>
+        <v>0.001656495616771281</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001947142649441957</v>
+        <v>0.001856420072726905</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0004568887525238097</v>
+        <v>0.0003765206784009933</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006501674652099609</v>
+        <v>0.0009991433471441269</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0001865668891696259</v>
+        <v>9.318403317593038e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001533993170596659</v>
+        <v>0.001821799785830081</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0004515487235039473</v>
+        <v>0.001024744124151766</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001663692382862791</v>
+        <v>0.0002106400788761675</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0003997434978373349</v>
+        <v>0.001376435626298189</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.353510015178472e-06</v>
+        <v>0.002042388543486595</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.0002423680998617783</v>
+        <v>0.01104505732655525</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001331073697656393</v>
+        <v>0.0009953533299267292</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.00151875102892518</v>
+        <v>0.0006132160197012126</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0008389457943849266</v>
+        <v>0.001945706433616579</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001944406074471772</v>
+        <v>0.006145332474261522</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0004641634586732835</v>
+        <v>0.0008183707832358778</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0005858138320036232</v>
+        <v>0.002982445526868105</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.000801068963482976</v>
+        <v>0.002351784147322178</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0004980352823622525</v>
+        <v>0.001538911485113204</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.00163503282237798</v>
+        <v>0.002324051922187209</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0009565861546434462</v>
+        <v>0.00356016238220036</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000965974060818553</v>
+        <v>0.003779046470299363</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0006188994157128036</v>
+        <v>0.004686227068305016</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0002946527092717588</v>
+        <v>0.004250488243997097</v>
       </c>
       <c r="BI13" t="n">
-        <v>9.5728988526389e-05</v>
+        <v>4.736939445137978e-06</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.132010013156105e-05</v>
+        <v>0.003847677959129214</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001346203731372952</v>
+        <v>0.0001696325489319861</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0001383765920763835</v>
+        <v>0.0005722495261579752</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0001339042937615886</v>
+        <v>0.003793088719248772</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.00141057709697634</v>
+        <v>0.0009266792912967503</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0007318487041629851</v>
+        <v>0.003711505560204387</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.270307620870881e-06</v>
+        <v>0.002891228534281254</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0004594322526827455</v>
+        <v>0.0002300698251929134</v>
       </c>
       <c r="BR13" t="n">
-        <v>5.443164263851941e-05</v>
+        <v>0.002177202608436346</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.0008548153564333916</v>
+        <v>0.0002612877869978547</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0009972659172490239</v>
+        <v>0.0001881865318864584</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0008383092936128378</v>
+        <v>0.0007911266293376684</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0005347129190340638</v>
+        <v>0.005076820030808449</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0003729900054167956</v>
+        <v>0.0003932924009859562</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.001335466629825532</v>
+        <v>0.0006855757674202323</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001943226438015699</v>
+        <v>0.000931857037357986</v>
       </c>
       <c r="BZ13" t="n">
-        <v>8.906202128855512e-05</v>
+        <v>0.001428581192158163</v>
       </c>
       <c r="CA13" t="n">
-        <v>5.247782974038273e-05</v>
+        <v>0.002561792731285095</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0005422462709248066</v>
+        <v>0.001522486098110676</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.002591914962977171</v>
+        <v>0.001302328077144921</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0006672542076557875</v>
+        <v>0.0003511683898977935</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0009546612855046988</v>
+        <v>0.002499798545613885</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0004089518042746931</v>
+        <v>0.00128303375095129</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0007643024437129498</v>
+        <v>0.001272862078621984</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0009361504344269633</v>
+        <v>0.0008402077946811914</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0002393247850704938</v>
+        <v>0.00210220692679286</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001990082673728466</v>
+        <v>0.0003886496997438371</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0001965488336281851</v>
+        <v>0.0003871042281389236</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0005233536357991397</v>
+        <v>0.0007296062540262938</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0001584584242664278</v>
+        <v>0.00228207721374929</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.002626589965075254</v>
+        <v>0.002071177354082465</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.000241265952354297</v>
+        <v>0.0003597473551053554</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.001134512829594314</v>
+        <v>0.001758316648192704</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.001434019766747952</v>
+        <v>0.0003262071113567799</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.001346408505924046</v>
+        <v>3.88886546716094e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0002262430207338184</v>
+        <v>0.0004152142500970513</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0002458776580169797</v>
+        <v>0.001563591882586479</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0004794860142283142</v>
+        <v>0.000827253214083612</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0007950731087476015</v>
+        <v>0.0001536313066026196</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.001214768155477941</v>
+        <v>0.001753312419168651</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0004880162014160305</v>
+        <v>0.001193805946968496</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0007327424827963114</v>
+        <v>0.002087286440655589</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001220984384417534</v>
+        <v>0.0005725057562813163</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0004836381122004241</v>
+        <v>0.001882418058812618</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0001744824694469571</v>
+        <v>0.0007324718753807247</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.000200050781131722</v>
+        <v>0.001434374251402915</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0006217381451278925</v>
+        <v>0.000310327741317451</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001466870540753007</v>
+        <v>0.00176464777905494</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.0020877739880234</v>
+        <v>0.004626802634447813</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.001956876134499907</v>
+        <v>0.0006689446745440364</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0008715335861779749</v>
+        <v>0.00358659983612597</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0003072278923355043</v>
+        <v>0.0009677037596702576</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0004642175044864416</v>
+        <v>0.001472090021707118</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.000267187919234857</v>
+        <v>0.002888407092541456</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0005609468789771199</v>
+        <v>0.00261563784442842</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0001895106979645789</v>
+        <v>0.001786521752364933</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0002351076254853979</v>
+        <v>0.001442480832338333</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0007130809244699776</v>
+        <v>0.001433334429748356</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0005631110398098826</v>
+        <v>0.001703161746263504</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0006021861336193979</v>
+        <v>0.002063930965960026</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0005491913761943579</v>
+        <v>0.0009295077761635184</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0001736740960041061</v>
+        <v>0.0003756274236366153</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0003683917166199535</v>
+        <v>9.325658902525902e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0005714677390642464</v>
+        <v>0.0005091056227684021</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0009066103375516832</v>
+        <v>0.0003398332046344876</v>
       </c>
       <c r="DW13" t="n">
-        <v>9.864148159977049e-05</v>
+        <v>0.0003400696441531181</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0001753315445967019</v>
+        <v>0.0001263583544641733</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0005046182195656002</v>
+        <v>0.001921932445839047</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.0005736892344430089</v>
+        <v>0.0006619727937504649</v>
       </c>
       <c r="EA13" t="n">
-        <v>6.194837169459788e-06</v>
+        <v>0.001000136602669954</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0005073522916063666</v>
+        <v>0.0003380926209501922</v>
       </c>
       <c r="EC13" t="n">
-        <v>9.111713734455407e-05</v>
+        <v>0.0002690849942155182</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0004291116201784462</v>
+        <v>0.0007447565440088511</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.001180684077553451</v>
+        <v>0.0008495663059875369</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0008444130653515458</v>
+        <v>0.0008211224339902401</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001023802440613508</v>
+        <v>0.0002816527849063277</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0001830869296099991</v>
+        <v>0.0002521033748053014</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0008191308006644249</v>
+        <v>0.0005052445339970291</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0004772449901793152</v>
+        <v>0.0001994746562559158</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0002399440854787827</v>
+        <v>0.00118557270616293</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.871142300544307e-05</v>
+        <v>0.001190102659165859</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0009414131054654717</v>
+        <v>0.0001775790587998927</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0006271886522881687</v>
+        <v>0.0003935864951927215</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0005800770595669746</v>
+        <v>0.001419418957084417</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.0006133224815130234</v>
+        <v>0.0005369522259570658</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001567056868225336</v>
+        <v>0.0007880227640271187</v>
       </c>
       <c r="ER13" t="n">
-        <v>3.046230995096266e-05</v>
+        <v>0.0006897905841469765</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.00127577583771199</v>
+        <v>0.0009385601151734591</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0004400003817863762</v>
+        <v>0.002556760562583804</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0003184250090271235</v>
+        <v>0.0009599638869985938</v>
       </c>
       <c r="EV13" t="n">
-        <v>4.101442755199969e-05</v>
+        <v>0.002122589619830251</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0007049059495329857</v>
+        <v>0.000267568597337231</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0006566724623553455</v>
+        <v>0.0002977725234813988</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.001187805784866214</v>
+        <v>0.001577376970089972</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.0005574587266892195</v>
+        <v>0.0007459222106263041</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0004828505043406039</v>
+        <v>0.00125854997895658</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.001080355257727206</v>
+        <v>0.0006486966158263385</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0002419720694888383</v>
+        <v>0.00186745950486511</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001378612068947405</v>
+        <v>0.0009025099570862949</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0002057194215012714</v>
+        <v>0.0005299338372424245</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0008187501225620508</v>
+        <v>0.0009255922632291913</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0002528010227251798</v>
+        <v>0.0008047763840295374</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0007665233570151031</v>
+        <v>0.001433453406207263</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0006786413141526282</v>
+        <v>0.001184418681077659</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0001468927366659045</v>
+        <v>0.0002294120495207608</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0011004718253389</v>
+        <v>0.0001049241400323808</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0004384733038023114</v>
+        <v>0.0009277775534428656</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0002475130022503436</v>
+        <v>5.123869050294161e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0009123369818553329</v>
+        <v>0.0005795292090624571</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0003323247365187854</v>
+        <v>0.0002788175770547241</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0002629499649628997</v>
+        <v>0.001504212617874146</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0007173812482506037</v>
+        <v>0.0002601004380267113</v>
       </c>
       <c r="FR13" t="n">
-        <v>7.094314059941098e-05</v>
+        <v>0.0001117676438298076</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0005015142378397286</v>
+        <v>0.001893191132694483</v>
       </c>
       <c r="FT13" t="n">
-        <v>9.555521683068946e-05</v>
+        <v>0.006413866300135851</v>
       </c>
       <c r="FU13" t="n">
-        <v>6.152419518912211e-05</v>
+        <v>0.001276677008718252</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0001904361415654421</v>
+        <v>0.0007213803473860025</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.000341993581969291</v>
+        <v>0.002690874738618731</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0004529205325525254</v>
+        <v>0.0007675081724300981</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0005504657747223973</v>
+        <v>0.001758787431754172</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0002903830027207732</v>
+        <v>0.001759008737280965</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.000496300111990422</v>
+        <v>0.0005936048692092299</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0007622198900207877</v>
+        <v>0.002278219908475876</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0003030888037756085</v>
+        <v>0.0003647292323876172</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0009715665364637971</v>
+        <v>0.0006365886656567454</v>
       </c>
       <c r="GE13" t="n">
-        <v>5.345221143215895e-05</v>
+        <v>0.004417384508997202</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0002752621367108077</v>
+        <v>0.002049801871180534</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0009351127664558589</v>
+        <v>0.00082809739978984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0007551815360784531</v>
+        <v>0.01176808774471283</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01408147998154163</v>
+        <v>0.002014151774346828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02032292634248734</v>
+        <v>0.02522194758057594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03222883492708206</v>
+        <v>0.04054945334792137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009238235652446747</v>
+        <v>0.01381383650004864</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0761900395154953</v>
+        <v>0.003444398753345013</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02312537655234337</v>
+        <v>0.001621434930711985</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06494172662496567</v>
+        <v>0.002168769016861916</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0145504642277956</v>
+        <v>0.003978594671934843</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001799185760319233</v>
+        <v>0.01215942576527596</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0111429737880826</v>
+        <v>0.003382564522325993</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01477847993373871</v>
+        <v>0.01618418656289577</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03860792145133018</v>
+        <v>0.038132444024086</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0288705974817276</v>
+        <v>0.001036005560308695</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06813973933458328</v>
+        <v>0.006942013278603554</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02158084511756897</v>
+        <v>0.003663003444671631</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07620332390069962</v>
+        <v>0.004705044440925121</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02467982098460197</v>
+        <v>0.002300792839378119</v>
       </c>
       <c r="S14" t="n">
-        <v>0.009497812017798424</v>
+        <v>0.008507917635142803</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00540308840572834</v>
+        <v>0.001717765931971371</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0007633804343640804</v>
+        <v>0.0004309300857130438</v>
       </c>
       <c r="V14" t="n">
-        <v>0.006411428563296795</v>
+        <v>0.002845472190529108</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01873207092285156</v>
+        <v>0.002870784606784582</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01483379397541285</v>
+        <v>0.001013554283417761</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.001337687252089381</v>
+        <v>0.003992839250713587</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01474516838788986</v>
+        <v>0.007060774136334658</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.007179699838161469</v>
+        <v>0.001071926904842257</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0006201411597430706</v>
+        <v>0.0004151624743826687</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.005925406236201525</v>
+        <v>0.003014682326465845</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.003463809844106436</v>
+        <v>0.00200978247448802</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01956042274832726</v>
+        <v>0.007315220311284065</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01887220330536366</v>
+        <v>0.01130283437669277</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0003600169438868761</v>
+        <v>0.001222070888616145</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.01846340298652649</v>
+        <v>0.0003610451240092516</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.005762693006545305</v>
+        <v>0.002022331580519676</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.005294284783303738</v>
+        <v>0.002012765966355801</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.005102578084915876</v>
+        <v>0.003696336643770337</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01087409071624279</v>
+        <v>0.001455262769013643</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.01703686825931072</v>
+        <v>0.006971736438572407</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.002605162095278502</v>
+        <v>0.002242272719740868</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02844571322202682</v>
+        <v>0.003051403444260359</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.006967568770051003</v>
+        <v>0.003566538216546178</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.002722946926951408</v>
+        <v>0.006675048731267452</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.003605363424867392</v>
+        <v>0.001036749687045813</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0006726208375766873</v>
+        <v>0.001225963467732072</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.00529994023963809</v>
+        <v>0.002781946212053299</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0008674429263919592</v>
+        <v>0.008129655383527279</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.01569551788270473</v>
+        <v>0.01191578898578882</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.01108324993401766</v>
+        <v>0.02911788783967495</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.001543743070214987</v>
+        <v>0.0005263326456770301</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.04809431359171867</v>
+        <v>0.009514773264527321</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.003022190183401108</v>
+        <v>0.0007416345179080963</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.03653611615300179</v>
+        <v>0.01643155515193939</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.007558189798146486</v>
+        <v>0.004943400621414185</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.007922091521322727</v>
+        <v>0.01237508095800877</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0008935157675296068</v>
+        <v>0.007674762979149818</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.000476097222417593</v>
+        <v>0.002489909064024687</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.01274552382528782</v>
+        <v>0.006726774387061596</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.01026522181928158</v>
+        <v>0.02287806198000908</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.001028780825436115</v>
+        <v>0.003744204761460423</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.02059286087751389</v>
+        <v>0.009875531308352947</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01810861565172672</v>
+        <v>0.01630851067602634</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.003360103350132704</v>
+        <v>0.005415922030806541</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.006761337164789438</v>
+        <v>0.0001483587548136711</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.002534206956624985</v>
+        <v>0.006581505760550499</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.02032488211989403</v>
+        <v>0.004480082541704178</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01196102239191532</v>
+        <v>0.00414245156571269</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.01291923690587282</v>
+        <v>0.009846074506640434</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.007107456214725971</v>
+        <v>0.004957376047968864</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.009361851029098034</v>
+        <v>0.0077651496976614</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.004042418207973242</v>
+        <v>0.001148240175098181</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0006732486071996391</v>
+        <v>0.0009020644356496632</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.01005425956100225</v>
+        <v>0.002216067630797625</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.001470692921429873</v>
+        <v>0.004483893979340792</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.00248719984665513</v>
+        <v>0.00979905016720295</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.003789314767345786</v>
+        <v>0.01653385534882545</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0002957801334559917</v>
+        <v>0.003052077488973737</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.02506284415721893</v>
+        <v>0.005358564667403698</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.004432761576026678</v>
+        <v>0.003781870473176241</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.02089957892894745</v>
+        <v>0.01433523744344711</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.008406407199800014</v>
+        <v>0.003744262270629406</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0009119557216763496</v>
+        <v>0.002430294640362263</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.009204869158565998</v>
+        <v>0.0007163723930716515</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.00797593779861927</v>
+        <v>0.004921780899167061</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.01330764126032591</v>
+        <v>0.007205271627753973</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.00057130993809551</v>
+        <v>0.001853820635005832</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.01631485298275948</v>
+        <v>0.004248193930834532</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.006507876329123974</v>
+        <v>0.002255465602502227</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.01234222855418921</v>
+        <v>0.001083228271454573</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0003396248794160783</v>
+        <v>0.002655617659911513</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.00117880292236805</v>
+        <v>0.007446655072271824</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.005884956102818251</v>
+        <v>0.0005569227505475283</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.01308559905737638</v>
+        <v>0.003364396980032325</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.01593898981809616</v>
+        <v>0.004043522290885448</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.01765223406255245</v>
+        <v>0.000905050546862185</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.02213692478835583</v>
+        <v>0.001198494806885719</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.01111894194036722</v>
+        <v>0.004360965918749571</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.005784655921161175</v>
+        <v>0.01066805236041546</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.01732519827783108</v>
+        <v>0.002614915370941162</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.00234351959079504</v>
+        <v>0.002199519891291857</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.01289528980851173</v>
+        <v>0.001333816209807992</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0102573661133647</v>
+        <v>0.003797694342210889</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.01362030487507582</v>
+        <v>0.005360471084713936</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.002420042175799608</v>
+        <v>0.003598525887355208</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.01504008285701275</v>
+        <v>0.003108717035502195</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.002389176748692989</v>
+        <v>0.001454026205465198</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.01589526608586311</v>
+        <v>0.0003809767076745629</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0002007947769016027</v>
+        <v>0.003323788987472653</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.02606155909597874</v>
+        <v>0.00297128246165812</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.01389725506305695</v>
+        <v>0.01036555133759975</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.006088012829422951</v>
+        <v>0.005220081657171249</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.006639411672949791</v>
+        <v>0.009988108649849892</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.01344341970980167</v>
+        <v>0.008731898851692677</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.02069119550287724</v>
+        <v>0.01462820637971163</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.002058470156043768</v>
+        <v>0.01770354248583317</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0122281052172184</v>
+        <v>0.005839377176016569</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.002617040649056435</v>
+        <v>0.003467389149591327</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.008152011781930923</v>
+        <v>0.0001806914806365967</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.008447097614407539</v>
+        <v>0.003164332592859864</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.002383590675890446</v>
+        <v>0.006002132780849934</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.009614579379558563</v>
+        <v>0.0008330901619046926</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.003896160051226616</v>
+        <v>0.001910775667056441</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.01279467158019543</v>
+        <v>0.0008831610321067274</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.007063037250190973</v>
+        <v>0.002066996414214373</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.01077435538172722</v>
+        <v>0.007670820225030184</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.005213042721152306</v>
+        <v>0.008455239236354828</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.001738859224133193</v>
+        <v>0.003237559925764799</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.008825168944895267</v>
+        <v>0.002319543855264783</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.009128053672611713</v>
+        <v>0.001936289947479963</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.00588938407599926</v>
+        <v>0.006514834240078926</v>
       </c>
       <c r="EA14" t="n">
-        <v>9.896466508507729e-06</v>
+        <v>0.006628824397921562</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0007581646787002683</v>
+        <v>0.006125517655164003</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.002934047020971775</v>
+        <v>0.00517400074750185</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.003772440133616328</v>
+        <v>0.01075929496437311</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.005192701239138842</v>
+        <v>0.0005331338616088033</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.003693900071084499</v>
+        <v>0.003091188846156001</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.01287133153527975</v>
+        <v>0.0007112342864274979</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.004744874313473701</v>
+        <v>0.004838221706449986</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.01291409134864807</v>
+        <v>0.01079384796321392</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0003923336043953896</v>
+        <v>0.002192302839830518</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0163178239017725</v>
+        <v>0.003257546108216047</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.001249308697879314</v>
+        <v>0.001424434827640653</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.01494028232991695</v>
+        <v>0.001205285778269172</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.00176880054641515</v>
+        <v>0.003010132582858205</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.002779387403279543</v>
+        <v>0.003964869305491447</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.002886569825932384</v>
+        <v>0.001617606962099671</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.01860098540782928</v>
+        <v>0.005544622428715229</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.003322649281471968</v>
+        <v>0.001048065489158034</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.01074087899178267</v>
+        <v>0.007509713061153889</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.00960657000541687</v>
+        <v>0.0023743468336761</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.002559906337410212</v>
+        <v>0.00152025290299207</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.001883434364572167</v>
+        <v>0.01671217381954193</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.001841361518017948</v>
+        <v>0.005400828085839748</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.001391185447573662</v>
+        <v>0.001807112246751785</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.01186154130846262</v>
+        <v>2.737692557275295e-05</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.01187833771109581</v>
+        <v>0.004341104067862034</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0144750801846385</v>
+        <v>0.006000611465424299</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.004588524345308542</v>
+        <v>0.002080692909657955</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.01543955318629742</v>
+        <v>0.003535854863002896</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.003558594034984708</v>
+        <v>0.0001824395731091499</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0154337715357542</v>
+        <v>0.0006516510620713234</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.001782331382855773</v>
+        <v>0.005342088174074888</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0002220091409981251</v>
+        <v>0.0004198650713078678</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.007016641087830067</v>
+        <v>0.002233585342764854</v>
       </c>
       <c r="FI14" t="n">
-        <v>1.572747714817524e-05</v>
+        <v>0.001793552772141993</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.01815470308065414</v>
+        <v>0.006336201447993517</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.002789651742205024</v>
+        <v>0.006373666226863861</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.002215707441791892</v>
+        <v>0.0004596408107317984</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.003760274732485414</v>
+        <v>0.00402407068759203</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.01229929737746716</v>
+        <v>0.004191787913441658</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.001147927716374397</v>
+        <v>0.009389268234372139</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.01336420141160488</v>
+        <v>0.008703842759132385</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.01385527476668358</v>
+        <v>0.004234928637742996</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.003956526052206755</v>
+        <v>0.01051238738000393</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.01715598255395889</v>
+        <v>0.00697239488363266</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.005021682474762201</v>
+        <v>0.003835329320281744</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.03631389886140823</v>
+        <v>0.001846209052018821</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.01420135423541069</v>
+        <v>0.0007032378343865275</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.02413532510399818</v>
+        <v>0.001527767861261964</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.001377883716486394</v>
+        <v>0.005619592498987913</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.001725016627460718</v>
+        <v>0.003709554905071855</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.002883284352719784</v>
+        <v>0.003768677124753594</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.005371184088289738</v>
+        <v>0.00469429325312376</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.009573400020599365</v>
+        <v>0.000750792445614934</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.00259809847921133</v>
+        <v>0.006679599173367023</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.00186334818135947</v>
+        <v>0.005012476816773415</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.01066593453288078</v>
+        <v>0.004668280016630888</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.0002490268088877201</v>
+        <v>0.01351066678762436</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.001585719757713377</v>
+        <v>0.01154906395822763</v>
       </c>
     </row>
     <row r="15">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.002453220309689641</v>
+        <v>4.170342072029598e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0008896138751879334</v>
+        <v>0.0005887980805709958</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004736057948321104</v>
+        <v>6.865425530122593e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007682600524276495</v>
+        <v>0.0001445385860279202</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01072442904114723</v>
+        <v>0.0002356826444156468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02359996177256107</v>
+        <v>0.0006572100101038814</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002514778869226575</v>
+        <v>0.0001103320464608259</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02665078826248646</v>
+        <v>0.0003182940999977291</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001265233149752021</v>
+        <v>1.680189598118886e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004285490140318871</v>
+        <v>4.427934618433937e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002873873338103294</v>
+        <v>0.0004969845758751035</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005765475332736969</v>
+        <v>8.532005449524149e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005306249484419823</v>
+        <v>8.372231968678534e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01516273338347673</v>
+        <v>0.0001309081126237288</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02269600704312325</v>
+        <v>0.0005974463419988751</v>
       </c>
       <c r="P16" t="n">
-        <v>0.003987965174019337</v>
+        <v>9.392481297254562e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03045803867280483</v>
+        <v>0.0002268076641485095</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001844164682552218</v>
+        <v>1.980045635718852e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.006716860923916101</v>
+        <v>2.881731234083418e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>0.000393317051930353</v>
+        <v>6.234632746782154e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002374976174905896</v>
+        <v>2.151814805984031e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001431705662980676</v>
+        <v>0.0001370373647660017</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0027129165828228</v>
+        <v>0.0001745331974234432</v>
       </c>
       <c r="X16" t="n">
-        <v>0.005335628986358643</v>
+        <v>1.912016341520939e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001658124150708318</v>
+        <v>9.858005796559155e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.007730742450803518</v>
+        <v>5.059143586549908e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0001657487591728568</v>
+        <v>1.65572164405603e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.000501319533213973</v>
+        <v>1.99526984943077e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001776901772245765</v>
+        <v>4.821111724595539e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.270930266007781e-05</v>
+        <v>1.488405723648611e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.005938672926276922</v>
+        <v>2.350709792153793e-06</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.008174956776201725</v>
+        <v>3.509360976750031e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0003297917428426445</v>
+        <v>5.085988595965318e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.01202500518411398</v>
+        <v>2.131828659912571e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.001125795766711235</v>
+        <v>2.283192225149833e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.002198401838541031</v>
+        <v>7.997872671694495e-06</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.002040218794718385</v>
+        <v>7.199474202934653e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.003198308404535055</v>
+        <v>0.0001026944155455567</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.007342448923736811</v>
+        <v>4.456278111319989e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.002403330523520708</v>
+        <v>1.212645474879537e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.01358062028884888</v>
+        <v>2.013742414419539e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001336900983005762</v>
+        <v>0.0001025681995088235</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0007621179101988673</v>
+        <v>2.079381374642253e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.641384192742407e-05</v>
+        <v>5.467041410156526e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.835444709286094e-05</v>
+        <v>2.864827547455207e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.004710458219051361</v>
+        <v>4.648670073947869e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.009439018554985523</v>
+        <v>0.0003699818335007876</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.001488236943259835</v>
+        <v>8.359451021533459e-05</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0003285432758275419</v>
+        <v>0.0001105414630728774</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.001605847151950002</v>
+        <v>0.0001529970613773912</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.01267744321376085</v>
+        <v>0.0003590255219023675</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.001139805885031819</v>
+        <v>9.506788774160668e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.01118351239711046</v>
+        <v>6.270748417591676e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0007247195462696254</v>
+        <v>4.867615643888712e-06</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.005033551715314388</v>
+        <v>3.113037382718176e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0001954022154677659</v>
+        <v>0.0002075832744594663</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001999189611524343</v>
+        <v>0.0001201567138195969</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.006282273679971695</v>
+        <v>1.003306897473522e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.009583277627825737</v>
+        <v>0.0001609659957466647</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.003192911855876446</v>
+        <v>0.0002049799222731963</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.005562505219131708</v>
+        <v>2.197382673330139e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.004929004702717066</v>
+        <v>6.150550325401127e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.002160992939025164</v>
+        <v>2.246151780127548e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.00106278108432889</v>
+        <v>7.459877815563232e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.003785347566008568</v>
+        <v>0.0001761233434081078</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.002361742313951254</v>
+        <v>5.61108099645935e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.00129177316557616</v>
+        <v>1.268737105419859e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.001905923127196729</v>
+        <v>3.415298851905391e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.001702429144643247</v>
+        <v>4.282320514903404e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.007417253218591213</v>
+        <v>3.735894279088825e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.002841009758412838</v>
+        <v>6.491109161288477e-06</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.0002231060789199546</v>
+        <v>2.82851469819434e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.002426948398351669</v>
+        <v>2.41530651692301e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.001381887122988701</v>
+        <v>0.0002235281281173229</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0009580252808518708</v>
+        <v>3.440312866587192e-06</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.0009824491571635008</v>
+        <v>6.472258974099532e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.005068402737379074</v>
+        <v>6.933362328709336e-06</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.0117788128554821</v>
+        <v>0.0001568708830745891</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.00210376619361341</v>
+        <v>1.388185501127737e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.01014800183475018</v>
+        <v>2.900975596276112e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.001845147693529725</v>
+        <v>2.527028846088797e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.001701706438325346</v>
+        <v>9.502291504759341e-06</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0006257019122131169</v>
+        <v>6.753498018952087e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.001704629859887064</v>
+        <v>1.836782939790282e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.002390620065853</v>
+        <v>3.350239421706647e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.002762343501672149</v>
+        <v>4.327176429796964e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.004366491921246052</v>
+        <v>0.0001235537347383797</v>
       </c>
       <c r="CJ16" t="n">
-        <v>8.762789366301149e-05</v>
+        <v>4.574592821882106e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.004746417049318552</v>
+        <v>5.395443440647796e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>4.005966184195131e-05</v>
+        <v>2.925222361227497e-06</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.003870914224535227</v>
+        <v>6.138467870187014e-05</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.004824165254831314</v>
+        <v>5.126625183038414e-05</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.003318151459097862</v>
+        <v>4.408723543747328e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.003117508254945278</v>
+        <v>1.619941394892521e-05</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.001754184486344457</v>
+        <v>6.066275818739086e-05</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0008916661608964205</v>
+        <v>3.865648977807723e-05</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.002426226157695055</v>
+        <v>7.775463745929301e-05</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.004903060384094715</v>
+        <v>7.446870586136356e-05</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.005723332054913044</v>
+        <v>8.821615665510762e-06</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.002471644431352615</v>
+        <v>2.526060143281939e-06</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.001855089096352458</v>
+        <v>5.137766129337251e-05</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.00169388041831553</v>
+        <v>1.138368679676205e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.001704494585283101</v>
+        <v>5.026788130635396e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.002418737858533859</v>
+        <v>3.489264781819656e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.004898938350379467</v>
+        <v>0.0001175447614514269</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.000180479371920228</v>
+        <v>3.283790283603594e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.006590117700397968</v>
+        <v>6.341443804558367e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0002190352533943951</v>
+        <v>1.865713602455799e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.015364745631814</v>
+        <v>0.0001064880125341006</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.01174756325781345</v>
+        <v>4.354416523710825e-05</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.0006863141898065805</v>
+        <v>3.910463783540763e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.001149237505160272</v>
+        <v>0.0003149841795675457</v>
       </c>
       <c r="DI16" t="n">
-        <v>7.823764462955296e-05</v>
+        <v>0.0001270894426852465</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.005258720368146896</v>
+        <v>2.940615922852885e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.0003258898796048015</v>
+        <v>4.15433241869323e-05</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.002703466452658176</v>
+        <v>2.798877540044487e-05</v>
       </c>
       <c r="DM16" t="n">
-        <v>9.034178219735622e-06</v>
+        <v>9.157329623121768e-05</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.005091937724500895</v>
+        <v>3.220912913093343e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.002805294934660196</v>
+        <v>3.024922261829488e-05</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.001796641037799418</v>
+        <v>2.477450289006811e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.002844808623194695</v>
+        <v>2.233031955256592e-05</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.003086663549765944</v>
+        <v>2.009871241170913e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.001216655131429434</v>
+        <v>7.270227797562256e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.002035478828474879</v>
+        <v>6.276004569372162e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.002569230739027262</v>
+        <v>1.390214492857922e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0001253473456017673</v>
+        <v>2.515968662919477e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.00146739324554801</v>
+        <v>8.312279533129185e-06</v>
       </c>
       <c r="DX16" t="n">
-        <v>4.546978743746877e-06</v>
+        <v>4.423937207320705e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0001097940548788756</v>
+        <v>1.068054734787438e-05</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.0001273625530302525</v>
+        <v>6.730225868523121e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0006340102991089225</v>
+        <v>1.466297908336855e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0008487675222568214</v>
+        <v>4.723273013951257e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.001716480124741793</v>
+        <v>4.623288987204432e-07</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.0001031625579344109</v>
+        <v>2.872765799111221e-05</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.00177440547849983</v>
+        <v>4.355934652267024e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.007154320366680622</v>
+        <v>4.32783599535469e-06</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.00401854794472456</v>
+        <v>3.896896669175476e-05</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.0006075972341932356</v>
+        <v>1.596530455572065e-05</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.002128757070749998</v>
+        <v>1.724843968986534e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.001982711721211672</v>
+        <v>3.52352908521425e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.005735722370445728</v>
+        <v>0.0001062690062099136</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.0006508594960905612</v>
+        <v>3.90485038224142e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.007475512102246284</v>
+        <v>1.263000376638956e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>1.970375888049603e-05</v>
+        <v>8.20883724372834e-06</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.003917450085282326</v>
+        <v>2.744818993960507e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.000742992153391242</v>
+        <v>6.291320460150018e-07</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.002163220895454288</v>
+        <v>5.875044735148549e-06</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.001709466450847685</v>
+        <v>1.416828490619082e-05</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.00385373760946095</v>
+        <v>7.529793219873682e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.003707472700625658</v>
+        <v>5.049299579695798e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.0001402064954163507</v>
+        <v>2.217235305579379e-06</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.003639963688328862</v>
+        <v>0.0001903712109196931</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.0004525143303908408</v>
+        <v>7.02882680343464e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.002152497414499521</v>
+        <v>4.11146220358205e-06</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.002195270033553243</v>
+        <v>4.417751915752888e-05</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.00212593306787312</v>
+        <v>9.566956578055397e-07</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.003610424930229783</v>
+        <v>3.270948582212441e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.004279791843146086</v>
+        <v>4.85528762510512e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.004919532686471939</v>
+        <v>0.0001217626486322843</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0004144595295656472</v>
+        <v>5.369599239202216e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.006672020070254803</v>
+        <v>4.984609404345974e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.0005013968329876661</v>
+        <v>4.559396074910183e-06</v>
       </c>
       <c r="FG16" t="n">
-        <v>5.763911394751631e-05</v>
+        <v>3.311438922537491e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.00187412858940661</v>
+        <v>9.462684101890773e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.001716357422992587</v>
+        <v>3.416855906834826e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.001353975501842797</v>
+        <v>0.00012315230560489</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.002217316068708897</v>
+        <v>5.565161700360477e-06</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.0002316888421773911</v>
+        <v>6.0946407757001e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.002187157049775124</v>
+        <v>7.609755357407266e-06</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.001331865903921425</v>
+        <v>7.09013911546208e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.001540634082630277</v>
+        <v>2.561193832661957e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.005768903531134129</v>
+        <v>6.431774818338454e-05</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.000403236219426617</v>
+        <v>2.550565841374919e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0004436656017787755</v>
+        <v>3.678487337310798e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.002439515665173531</v>
+        <v>4.612578050000593e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0002112635411322117</v>
+        <v>9.843506632023491e-08</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.005989337805658579</v>
+        <v>8.267520024674013e-05</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.005117027088999748</v>
+        <v>8.967269968707114e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.004585611633956432</v>
+        <v>0.0001052736915880814</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.001492314971983433</v>
+        <v>2.047043199127074e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.002184546086937189</v>
+        <v>5.835359843331389e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.002089886227622628</v>
+        <v>5.216883073444478e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.001327742356806993</v>
+        <v>3.750473479158245e-05</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0004472637956496328</v>
+        <v>3.237197233829647e-06</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.004320831969380379</v>
+        <v>0.0001931325678015128</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.0006134130526334047</v>
+        <v>0.0001150694952229969</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.001259403885342181</v>
+        <v>0.0001193393036373891</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.001965819858014584</v>
+        <v>8.760226592130493e-06</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0010717932600528</v>
+        <v>1.496172262704931e-05</v>
       </c>
     </row>
   </sheetData>
